--- a/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_iea15_output.xlsx
+++ b/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_iea15_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[2.79954228]</t>
+          <t>[2.77876722]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3056,8 +3056,8 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[8.51863396]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[8.41735213]</t>
+          <t>[8.51863396]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[[0.0567344 0.025     0.025     0.025     0.025    ]]</t>
+          <t>[[0.03641277 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.51863396 8.51863396 8.51863396 6.         6.        ]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4628,10 +4628,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         28397.48972612
- 28814.94210294 30082.00382747 32243.77801283 35376.3600571
- 39591.79945657 45045.46940651 51948.16151303 60586.86438209
- 71359.80288097     0.             0.             0.
+          <t>[    0.             0.             0.         29069.68507225
+ 29496.59604729 30792.37154451 33002.9408802  36205.80484448
+ 40515.42263667 46090.4507879  53146.30144285 61976.51807142
+ 72988.80330741     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4882,10 +4882,10 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5026,10 +5026,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         28397.48972612
- 28814.94210294 30082.00382747 32243.77801283 35376.3600571
- 39591.79945657 45045.46940651 51948.16151303 60586.86438209
- 71359.80288097     0.             0.             0.
+          <t>[    0.             0.             0.         29069.68507225
+ 29496.59604729 30792.37154451 33002.9408802  36205.80484448
+ 40515.42263667 46090.4507879  53146.30144285 61976.51807142
+ 72988.80330741     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5172,10 +5172,10 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -28397.48972612
- -28814.94210294 -30082.00382747 -32243.77801283 -35376.3600571
- -39591.79945657 -45045.46940651 -51948.16151303 -60586.86438209
- -71359.80288097      0.              0.              0.
+          <t>[     0.              0.              0.         -29069.68507225
+ -29496.59604729 -30792.37154451 -33002.9408802  -36205.80484448
+ -40515.42263667 -46090.4507879  -53146.30144285 -61976.51807142
+ -72988.80330741      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5249,26 +5249,26 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[[3.09888740e+10 1.85474786e+13 3.09888740e+10 1.85474786e+13
-  1.90480977e+10 5.56625713e+10]
- [2.78764530e+10 1.31069127e+13 2.78764530e+10 1.31069127e+13
-  1.73680977e+10 5.56625713e+10]
- [2.47640319e+10 8.86101349e+12 2.47640319e+10 8.86101349e+12
-  1.56880977e+10 5.56625713e+10]
- [2.16516109e+10 5.66044758e+12 2.16516109e+10 5.66044758e+12
-  1.40080977e+10 5.56625713e+10]
- [1.85391898e+10 3.35588167e+12 1.85391898e+10 3.35588167e+12
-  1.23280977e+10 5.56625713e+10]
- [1.54267688e+10 1.79798243e+12 1.54267688e+10 1.79798243e+12
-  1.06480977e+10 5.56625713e+10]
- [1.23143477e+10 8.37416528e+11 1.23143477e+10 8.37416528e+11
-  8.96809766e+09 5.56625713e+10]
- [9.20192665e+09 3.24850622e+11 9.20192665e+09 3.24850622e+11
-  7.28809766e+09 5.56625713e+10]
- [6.08950560e+09 1.10951382e+11 6.08950560e+09 1.10951382e+11
-  5.60809766e+09 5.56625713e+10]
- [2.97708454e+09 4.63854761e+10 2.97708454e+09 4.63854761e+10
-  3.92809766e+09 5.56625713e+10]]</t>
+          <t>[[3.10246958e+10 1.85578184e+13 3.10246958e+10 1.85578184e+13
+  1.90953625e+10 5.76961253e+10]
+ [2.79122747e+10 1.31162919e+13 2.79122747e+10 1.31162919e+13
+  1.74153625e+10 5.76961253e+10]
+ [2.47998537e+10 8.86943212e+12 2.47998537e+10 8.86943212e+12
+  1.57353625e+10 5.76961253e+10]
+ [2.16874326e+10 5.66790564e+12 2.16874326e+10 5.66790564e+12
+  1.40553625e+10 5.76961253e+10]
+ [1.85750116e+10 3.36237916e+12 1.85750116e+10 3.36237916e+12
+  1.23753625e+10 5.76961253e+10]
+ [1.54625905e+10 1.80351935e+12 1.54625905e+10 1.80351935e+12
+  1.06953625e+10 5.76961253e+10]
+ [1.23501695e+10 8.41992874e+11 1.23501695e+10 8.41992874e+11
+  9.01536251e+09 5.76961253e+10]
+ [9.23774843e+09 3.28466395e+11 9.23774843e+09 3.28466395e+11
+  7.33536251e+09 5.76961253e+10]
+ [6.12532738e+09 1.13606583e+11 6.12532738e+09 1.13606583e+11
+  5.65536251e+09 5.76961253e+10]
+ [3.01290633e+09 4.80801044e+10 3.01290633e+09 4.80801044e+10
+  3.97536251e+09 5.76961253e+10]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5332,9 +5332,9 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611]</t>
+          <t>[2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -5357,9 +5357,9 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315]</t>
+          <t>[1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446
+ 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446
+ 1.2128446 1.2128446 1.2128446 1.2128446]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5382,9 +5382,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315]</t>
+          <t>[1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446
+ 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446 1.2128446
+ 1.2128446 1.2128446 1.2128446 1.2128446]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -5407,9 +5407,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -5432,9 +5432,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -5457,9 +5457,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314]</t>
+          <t>[37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -5555,8 +5555,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
- 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075
+ 0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5703,8 +5703,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.8050274  0.8050274  0.8050274  0.57136386 0.57136386 0.57136386
+ 0.54314254 0.48669988 0.43025722 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5727,8 +5727,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5751,8 +5751,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5775,8 +5775,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.25411758 7.25411758 7.25411758 5.15850002 5.15850002 5.15850002
+ 4.43125589 3.18837762 2.20278177 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5799,8 +5799,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.25411758 7.25411758 7.25411758 5.15850002 5.15850002 5.15850002
+ 4.43125589 3.18837762 2.20278177 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5823,8 +5823,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[14.50823516 14.50823516 14.50823516 10.31700005 10.31700005 10.31700005
+  8.86251179  6.37675525  4.40556353  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5918,8 +5918,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 7.6790893  6.83954465 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -5943,8 +5943,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.0408672 0.0408672 0.0408672 0.025     0.025     0.025     0.025
- 0.025     0.025     0.025     0.025     0.025    ]</t>
+          <t>[0.02820639 0.02820639 0.02820639 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -6049,9 +6049,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[[  3787067.18771894]
- [    22429.54651141]
- [-17276086.38351376]]</t>
+          <t>[[  3787067.18771607]
+ [    22429.54651138]
+ [-15599910.06522317]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6074,8 +6074,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[[-4.80594361e+06]
- [ 5.53400957e+08]
+          <t>[[-4.83439966e+06]
+ [ 5.56110341e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[ 885647.71156764  885647.71156764 1771295.42313528       0.
+          <t>[ 907089.05602145  907089.05602145 1814178.1120429        0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[1801135.93540648]</t>
+          <t>[1629988.37877047]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[-3.87679433e+00 -5.24445062e-02  1.18059426e+02]</t>
+          <t>[-4.28385483e+00 -5.79511400e-02  1.24581891e+02]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3.05271898e+10 3.04214533e+10 2.65555934e+08 8.52611923e+02
+          <t>[2.96601705e+10 2.95544340e+10 2.64237815e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -6347,16 +6347,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-28397.48972612]
- [-28814.94210294]
- [-30082.00382747]
- [-32243.77801283]
- [-35376.3600571 ]
- [-39591.79945657]
- [-45045.46940651]
- [-51948.16151303]
- [-60586.86438209]
- [-71359.80288097]
+ [-29069.68507225]
+ [-29496.59604729]
+ [-30792.37154451]
+ [-33002.9408802 ]
+ [-36205.80484448]
+ [-40515.42263667]
+ [-46090.4507879 ]
+ [-53146.30144285]
+ [-61976.51807142]
+ [-72988.80330741]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6455,15 +6455,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-201.34569279]
+ [-236.66947186]
+ [-260.83840442]
+ [-279.65218829]
+ [-301.16642678]
+ [-318.72519287]
+ [-333.67446442]
+ [-305.42464858]
+ [-273.64295226]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -6589,24 +6589,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[[-31083634.32438171]
- [-28830055.43204881]
- [-26365625.16930933]
- [-25770429.3522816 ]
- [-25172454.08451291]
- [-24568821.23752905]
- [-23956452.6977025 ]
- [-23331959.93227015]
- [-22691513.13659932]
- [-22030678.34825443]
- [-21344200.25285821]
- [-20625692.938003  ]
- [-20007153.95256281]
- [-19506358.64315527]
- [-19005563.33374794]
- [-18755165.67904408]
- [-18504768.02434047]
- [-18254370.36963667]]</t>
+          <t>[[-30387935.2018899 ]
+ [-27945535.95736747]
+ [-25287294.29211489]
+ [-24647904.5417772 ]
+ [-24005672.3571054 ]
+ [-23357654.70532976]
+ [-22700704.88180817]
+ [-22031359.47213757]
+ [-21345704.39278083]
+ [-20639208.36997512]
+ [-19906500.33153259]
+ [-19141052.15567262]
+ [-18477865.24200666]
+ [-17935109.85433516]
+ [-17392354.46666334]
+ [-17120976.77282738]
+ [-16849599.07899186]
+ [-16578221.38515626]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6629,24 +6629,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[[ -1085612.16157792]
- [ -8739843.74609141]
- [-24556574.26457408]
- [  3787805.89511417]
- [  3788014.18468002]
- [  3788225.84181181]
- [  3788444.08377515]
- [  3788672.53951114]
- [  3788915.46643785]
- [  3789178.02603458]
- [  3789466.67354641]
- [  3789789.75566784]
- [  3789768.10580186]
- [  3789264.26227449]
- [  3789404.26620736]
- [  3788287.2170671 ]
- [  3788321.00664442]
- [  3788354.39195336]]</t>
+          <t>[[ -1229233.40437991]
+ [ -9193563.60191038]
+ [-23850360.0362806 ]
+ [  3787799.11301987]
+ [  3788000.3228715 ]
+ [  3788204.54144712]
+ [  3788414.73427541]
+ [  3788634.24791962]
+ [  3788867.01107069]
+ [  3789117.78829561]
+ [  3789392.54204407]
+ [  3789698.98759438]
+ [  3789685.49366981]
+ [  3789225.15157243]
+ [  3789361.76522551]
+ [  3788264.72570921]
+ [  3788297.70440418]
+ [  3788330.29125627]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -6669,24 +6669,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[[  -8773.69875082]
- [ -70838.58147592]
- [-201994.38357051]
- [  22435.48610147]
- [  22437.18463504]
- [  22438.91851948]
- [  22440.71431031]
- [  22442.60218171]
- [  22444.61775007]
- [  22446.8044078 ]
- [  22449.21663214]
- [  22451.92506   ]
- [  22451.80727939]
- [  22447.70427564]
- [  22448.91495454]
- [  22439.67863317]
- [  22439.9739941 ]
- [  22440.2669145 ]]</t>
+          <t>[[  -9940.93673252]
+ [ -74576.7950793 ]
+ [-196503.58756298]
+ [  22435.43442269]
+ [  22437.07647286]
+ [  22438.75073792]
+ [  22440.48171392]
+ [  22442.29724779]
+ [  22444.23022949]
+ [  22446.32074277]
+ [  22448.61914017]
+ [  22451.19075742]
+ [  22451.13833268]
+ [  22447.39105946]
+ [  22448.57356435]
+ [  22439.49757352]
+ [  22439.78613283]
+ [  22440.07233383]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -6709,24 +6709,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[[  -56221.10033315]
- [ -857171.52937625]
- [-5042071.31328623]
- [-5747194.24032765]
- [-5670235.62612915]
- [-5592864.31116283]
- [-5515109.19157498]
- [-5436999.47603577]
- [-5358564.93822439]
- [-5279836.21152236]
- [-5200845.14427404]
- [-5121625.24170731]
- [-5042212.1691169 ]
- [-4962610.79215742]
- [-4882816.19628251]
- [-4842869.84821978]
- [-4802883.82262709]
- [-4762860.3977703 ]]</t>
+          <t>[[  -64386.36961687]
+ [ -928481.05843273]
+ [-5064566.74243366]
+ [-5738998.66824669]
+ [-5662307.78768781]
+ [-5585268.9787261 ]
+ [-5507909.46225088]
+ [-5430256.72570234]
+ [-5352338.75653036]
+ [-5274184.31474466]
+ [-5195823.26151709]
+ [-5117286.96807819]
+ [-5038608.78180809]
+ [-4959793.45865379]
+ [-4880836.69676415]
+ [-4841327.98472873]
+ [-4801792.04498072]
+ [-4762231.00408227]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -6749,24 +6749,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[6.99122615e+06]
- [1.06588090e+08]
- [6.20604850e+08]
- [7.04633638e+08]
- [6.91738129e+08]
- [6.78792374e+08]
- [6.65800179e+08]
- [6.52765367e+08]
- [6.39691811e+08]
- [6.26583463e+08]
- [6.13444402e+08]
- [6.00278881e+08]
- [5.87091388e+08]
- [5.73882652e+08]
- [5.60652221e+08]
- [5.54031735e+08]
- [5.47406913e+08]
- [5.40778047e+08]]</t>
+          <t>[[8.00414964e+06]
+ [1.15396420e+08]
+ [6.22913438e+08]
+ [7.03094142e+08]
+ [6.90231943e+08]
+ [6.77327433e+08]
+ [6.64384172e+08]
+ [6.51405732e+08]
+ [6.38395725e+08]
+ [6.25357837e+08]
+ [6.12295864e+08]
+ [5.99213761e+08]
+ [5.86115694e+08]
+ [5.73002345e+08]
+ [5.59873299e+08]
+ [5.53305657e+08]
+ [5.46735104e+08]
+ [5.40161909e+08]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6789,24 +6789,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[1268857.34762299]
- [2928188.15012135]
- [5488652.39875292]
- [9738196.86072445]
- [9738159.64241193]
- [9738122.25058352]
- [9738084.50527381]
- [9738046.21401806]
- [9738007.16494754]
- [9737967.11860861]
- [9737925.79777919]
- [9737882.87389049]
- [9737837.9476941 ]
- [9737799.27256188]
- [9737767.9597651 ]
- [9737736.64716963]
- [9737720.99094745]
- [9737705.33477561]]</t>
+          <t>[[1316548.76420174]
+ [3011783.10046099]
+ [5573337.39195839]
+ [9738007.18933936]
+ [9737970.29993063]
+ [9737933.2468098 ]
+ [9737895.8601864 ]
+ [9737857.9585248 ]
+ [9737819.34202332]
+ [9737779.78488663]
+ [9737739.02572057]
+ [9737696.75469146]
+ [9737652.59522655]
+ [9737614.33563912]
+ [9737583.02403083]
+ [9737551.7126239 ]
+ [9737536.05699595]
+ [9737520.40141834]]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -6858,11 +6858,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 7.6790893  6.83954465 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -6886,11 +6886,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[0.07      0.07      0.07      0.07      0.07      0.07      0.07
- 0.07      0.07      0.07      0.07      0.07      0.07      0.07
- 0.07      0.07      0.07      0.07      0.0408672 0.0408672 0.0408672
- 0.025     0.025     0.025     0.025     0.025     0.025     0.025
- 0.025     0.025    ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02820639 0.02820639 0.02820639 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -7038,11 +7038,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 0.8050274  0.8050274  0.8050274  0.57136386 0.57136386 0.57136386
+ 0.54314254 0.48669988 0.43025722 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -7092,11 +7092,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -7119,11 +7119,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
-  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+  7.25411758  7.25411758  7.25411758  5.15850002  5.15850002  5.15850002
+  4.43125589  3.18837762  2.20278177  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -7146,11 +7146,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
-  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+  7.25411758  7.25411758  7.25411758  5.15850002  5.15850002  5.15850002
+  4.43125589  3.18837762  2.20278177  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7173,11 +7173,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 14.50823516 14.50823516 14.50823516 10.31700005 10.31700005 10.31700005
+  8.86251179  6.37675525  4.40556353  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7200,36 +7200,36 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-3.10836343e+07]
- [-2.88300554e+07]
- [-2.63656252e+07]
- [-2.57704294e+07]
- [-2.51724541e+07]
- [-2.45688212e+07]
- [-2.39564527e+07]
- [-2.33319599e+07]
- [-2.26915131e+07]
- [-2.20306783e+07]
- [-2.13442003e+07]
- [-2.06256929e+07]
- [-2.00071540e+07]
- [-1.95063586e+07]
- [-1.90055633e+07]
- [-1.87551657e+07]
- [-1.85047680e+07]
- [-1.82543704e+07]
- [-1.62031778e+07]
- [-1.51312272e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-3.03879352e+07]
+ [-2.79455360e+07]
+ [-2.52872943e+07]
+ [-2.46479045e+07]
+ [-2.40056724e+07]
+ [-2.33576547e+07]
+ [-2.27007049e+07]
+ [-2.20313595e+07]
+ [-2.13457044e+07]
+ [-2.06392084e+07]
+ [-1.99065003e+07]
+ [-1.91410522e+07]
+ [-1.84778652e+07]
+ [-1.79351099e+07]
+ [-1.73923545e+07]
+ [-1.71209768e+07]
+ [-1.68495991e+07]
+ [-1.65782214e+07]
+ [-1.48089617e+07]
+ [-1.40188370e+07]
+ [-1.32283357e+07]
+ [-1.24251357e+07]
+ [-1.16215710e+07]
+ [-1.08176530e+07]
+ [-1.03587844e+07]
+ [-9.94730521e+06]
+ [-9.58346890e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7252,36 +7252,36 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[-1.08561216e+06]
- [-8.73984375e+06]
- [-2.45565743e+07]
- [ 3.78780590e+06]
- [ 3.78801418e+06]
- [ 3.78822584e+06]
- [ 3.78844408e+06]
- [ 3.78867254e+06]
- [ 3.78891547e+06]
- [ 3.78917803e+06]
- [ 3.78946667e+06]
- [ 3.78978976e+06]
- [ 3.78976811e+06]
- [ 3.78926426e+06]
- [ 3.78940427e+06]
- [ 3.78828722e+06]
- [ 3.78832101e+06]
- [ 3.78835439e+06]
- [ 3.79369455e+06]
- [ 3.79564329e+06]
- [ 3.79738021e+06]
- [ 3.79830097e+06]
- [ 3.80080997e+06]
- [ 3.80270612e+06]
- [ 3.79671386e+06]
- [ 3.79624881e+06]
- [ 3.79563418e+06]
- [ 3.79253956e+06]
- [ 3.79251343e+06]
- [ 5.38561682e+03]]</t>
+          <t>[[-1.22923340e+06]
+ [-9.19356360e+06]
+ [-2.38503600e+07]
+ [ 3.78779911e+06]
+ [ 3.78800032e+06]
+ [ 3.78820454e+06]
+ [ 3.78841473e+06]
+ [ 3.78863425e+06]
+ [ 3.78886701e+06]
+ [ 3.78911779e+06]
+ [ 3.78939254e+06]
+ [ 3.78969899e+06]
+ [ 3.78968549e+06]
+ [ 3.78922515e+06]
+ [ 3.78936177e+06]
+ [ 3.78826473e+06]
+ [ 3.78829770e+06]
+ [ 3.78833029e+06]
+ [ 3.79171940e+06]
+ [ 3.79343467e+06]
+ [ 3.79496370e+06]
+ [ 3.79710976e+06]
+ [ 3.79932488e+06]
+ [ 3.80100045e+06]
+ [ 3.79559606e+06]
+ [ 3.79505449e+06]
+ [ 3.79437773e+06]
+ [ 3.79168233e+06]
+ [ 3.79165547e+06]
+ [ 4.52755540e+03]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7304,36 +7304,36 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[-8.77369875e+03]
- [-7.08385815e+04]
- [-2.01994384e+05]
- [ 2.24354861e+04]
- [ 2.24371846e+04]
- [ 2.24389185e+04]
- [ 2.24407143e+04]
- [ 2.24426022e+04]
- [ 2.24446178e+04]
- [ 2.24468044e+04]
- [ 2.24492166e+04]
- [ 2.24519251e+04]
- [ 2.24518073e+04]
- [ 2.24477043e+04]
- [ 2.24489150e+04]
- [ 2.24396786e+04]
- [ 2.24399740e+04]
- [ 2.24402669e+04]
- [ 2.24853177e+04]
- [ 2.25030341e+04]
- [ 2.25194449e+04]
- [ 2.25302114e+04]
- [ 2.25573114e+04]
- [ 2.25806007e+04]
- [ 2.25260232e+04]
- [ 2.25247000e+04]
- [ 2.25229391e+04]
- [ 2.24925710e+04]
- [ 2.24956035e+04]
- [ 6.72750370e+01]]</t>
+          <t>[[-9.94093673e+03]
+ [-7.45767951e+04]
+ [-1.96503588e+05]
+ [ 2.24354344e+04]
+ [ 2.24370765e+04]
+ [ 2.24387507e+04]
+ [ 2.24404817e+04]
+ [ 2.24422972e+04]
+ [ 2.24442302e+04]
+ [ 2.24463207e+04]
+ [ 2.24486191e+04]
+ [ 2.24511908e+04]
+ [ 2.24511383e+04]
+ [ 2.24473911e+04]
+ [ 2.24485736e+04]
+ [ 2.24394976e+04]
+ [ 2.24397861e+04]
+ [ 2.24400723e+04]
+ [ 2.24687943e+04]
+ [ 2.24844036e+04]
+ [ 2.24988650e+04]
+ [ 2.25201253e+04]
+ [ 2.25440734e+04]
+ [ 2.25646676e+04]
+ [ 2.25151625e+04]
+ [ 2.25127459e+04]
+ [ 2.25100567e+04]
+ [ 2.24836644e+04]
+ [ 2.24866899e+04]
+ [ 5.83600646e+01]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7356,36 +7356,36 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[-5.62211003e+04]
- [-8.57171529e+05]
- [-5.04207131e+06]
- [-5.74719424e+06]
- [-5.67023563e+06]
- [-5.59286431e+06]
- [-5.51510919e+06]
- [-5.43699948e+06]
- [-5.35856494e+06]
- [-5.27983621e+06]
- [-5.20084514e+06]
- [-5.12162524e+06]
- [-5.04221217e+06]
- [-4.96261079e+06]
- [-4.88281620e+06]
- [-4.84286985e+06]
- [-4.80288382e+06]
- [-4.76286040e+06]
- [-4.45306187e+06]
- [-4.13785543e+06]
- [-3.81861558e+06]
- [-3.35399652e+06]
- [-2.87924266e+06]
- [-2.39817559e+06]
- [-2.10846079e+06]
- [-1.81755287e+06]
- [-1.52507458e+06]
- [-1.32939418e+06]
- [-1.13313959e+06]
- [-6.63706181e-04]]</t>
+          <t>[[-6.43863696e+04]
+ [-9.28481058e+05]
+ [-5.06456674e+06]
+ [-5.73899867e+06]
+ [-5.66230779e+06]
+ [-5.58526898e+06]
+ [-5.50790946e+06]
+ [-5.43025673e+06]
+ [-5.35233876e+06]
+ [-5.27418431e+06]
+ [-5.19582326e+06]
+ [-5.11728697e+06]
+ [-5.03860878e+06]
+ [-4.95979346e+06]
+ [-4.88083670e+06]
+ [-4.84132798e+06]
+ [-4.80179204e+06]
+ [-4.76223100e+06]
+ [-4.45558962e+06]
+ [-4.14249652e+06]
+ [-3.82426025e+06]
+ [-3.36008408e+06]
+ [-2.88568207e+06]
+ [-2.40461479e+06]
+ [-2.11452417e+06]
+ [-1.82279728e+06]
+ [-1.52873647e+06]
+ [-1.33140074e+06]
+ [-1.13300931e+06]
+ [-5.75704900e-04]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7408,36 +7408,36 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 6.99122615e+06]
- [ 1.06588090e+08]
- [ 6.20604850e+08]
- [ 7.04633638e+08]
- [ 6.91738129e+08]
- [ 6.78792374e+08]
- [ 6.65800179e+08]
- [ 6.52765367e+08]
- [ 6.39691811e+08]
- [ 6.26583463e+08]
- [ 6.13444402e+08]
- [ 6.00278881e+08]
- [ 5.87091388e+08]
- [ 5.73882652e+08]
- [ 5.60652221e+08]
- [ 5.54031735e+08]
- [ 5.47406913e+08]
- [ 5.40778047e+08]
- [ 4.89621006e+08]
- [ 4.37881912e+08]
- [ 3.85736426e+08]
- [ 3.10432293e+08]
- [ 2.34259662e+08]
- [ 1.57695570e+08]
- [ 1.11801752e+08]
- [ 6.59456284e+07]
- [ 2.01601616e+07]
- [-1.02711127e+07]
- [-4.06106992e+07]
- [ 5.31341929e-02]]</t>
+          <t>[[ 8.00414964e+06]
+ [ 1.15396420e+08]
+ [ 6.22913438e+08]
+ [ 7.03094142e+08]
+ [ 6.90231943e+08]
+ [ 6.77327433e+08]
+ [ 6.64384172e+08]
+ [ 6.51405732e+08]
+ [ 6.38395725e+08]
+ [ 6.25357837e+08]
+ [ 6.12295864e+08]
+ [ 5.99213761e+08]
+ [ 5.86115694e+08]
+ [ 5.73002345e+08]
+ [ 5.59873299e+08]
+ [ 5.53305657e+08]
+ [ 5.46735104e+08]
+ [ 5.40161909e+08]
+ [ 4.89385943e+08]
+ [ 4.37909981e+08]
+ [ 3.85904858e+08]
+ [ 3.10689635e+08]
+ [ 2.34589373e+08]
+ [ 1.58054853e+08]
+ [ 1.12139833e+08]
+ [ 6.62272130e+07]
+ [ 2.03413772e+07]
+ [-1.01817912e+07]
+ [-4.06232385e+07]
+ [ 4.46669142e-02]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7460,35 +7460,35 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[[1268857.34762299]
- [2928188.15012135]
- [5488652.39875292]
- [9738196.86072445]
- [9738159.64241193]
- [9738122.25058352]
- [9738084.50527381]
- [9738046.21401806]
- [9738007.16494754]
- [9737967.11860861]
- [9737925.79777919]
- [9737882.87389049]
- [9737837.9476941 ]
- [9737799.27256188]
- [9737767.9597651 ]
- [9737736.64716963]
- [9737720.99094745]
- [9737705.33477561]
- [9738488.58708406]
- [9738368.32296449]
- [9738247.90556381]
- [9739124.74652101]
- [9738952.27408506]
- [9738779.74439802]
- [9738696.98055442]
- [9738788.87033335]
- [9738911.07638568]
- [9738933.45190322]
- [9738864.35339327]
+          <t>[[1316548.76420174]
+ [3011783.10046099]
+ [5573337.39195839]
+ [9738007.18933936]
+ [9737970.29993063]
+ [9737933.2468098 ]
+ [9737895.8601864 ]
+ [9737857.9585248 ]
+ [9737819.34202332]
+ [9737779.78488663]
+ [9737739.02572057]
+ [9737696.75469146]
+ [9737652.59522655]
+ [9737614.33563912]
+ [9737583.02403083]
+ [9737551.7126239 ]
+ [9737536.05699595]
+ [9737520.40141834]
+ [9738927.95374524]
+ [9738807.61665384]
+ [9738687.05396756]
+ [9739391.94517891]
+ [9739219.24661072]
+ [9739046.47576753]
+ [9738994.47989688]
+ [9739162.40130854]
+ [9739387.91904449]
+ [9739476.11681775]
+ [9739406.89068818]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2362048.11731663]</t>
+          <t>[2009607.28793592]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[849801.45198685]</t>
+          <t>[678653.89535084]</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3307048.11731663]</t>
+          <t>[2954607.28793592]</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[220.46987449]</t>
+          <t>[196.9738192]</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[849801.45198685]</t>
+          <t>[678653.89535084]</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2362048.11731663]</t>
+          <t>[2009607.28793592]</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[2362048.11731663]</t>
+          <t>[2009607.28793592]</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8301,8 +8301,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[201.34569279 236.66947186 260.83840442 279.65218829 301.16642678
+ 318.72519287 333.67446442 305.42464858 273.64295226 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8518,8 +8518,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 7.6790893  6.83954465 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -8614,8 +8614,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[201.34569279 236.66947186 260.83840442 279.65218829 301.16642678
+ 318.72519287 333.67446442 305.42464858 273.64295226 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8756,8 +8756,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-201.34569279 -236.66947186 -260.83840442 -279.65218829 -301.16642678
+ -318.72519287 -333.67446442 -305.42464858 -273.64295226 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -8831,8 +8831,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[0.0408672 0.0408672 0.0408672 0.025     0.025     0.025     0.025
- 0.025     0.025     0.025     0.025     0.025    ]</t>
+          <t>[0.02820639 0.02820639 0.02820639 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8973,8 +8973,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.8050274  0.8050274  0.8050274  0.57136386 0.57136386 0.57136386
+ 0.54314254 0.48669988 0.43025722 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -8997,8 +8997,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9021,8 +9021,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -9045,8 +9045,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.25411758 7.25411758 7.25411758 5.15850002 5.15850002 5.15850002
+ 4.43125589 3.18837762 2.20278177 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -9069,8 +9069,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.25411758 7.25411758 7.25411758 5.15850002 5.15850002 5.15850002
+ 4.43125589 3.18837762 2.20278177 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9093,8 +9093,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[14.50823516 14.50823516 14.50823516 10.31700005 10.31700005 10.31700005
+  8.86251179  6.37675525  4.40556353  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9212,17 +9212,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[[-16204135.81615996]
- [-15131827.00028135]
- [-14059260.05505748]
- [-13117956.67907289]
- [-12176317.89202564]
- [-11234399.61479934]
- [-10692773.72291407]
- [-10198366.94882868]
- [ -9751211.14539434]
- [ -9468851.22077094]
- [ -9186467.52414183]
+          <t>[[-14809785.3732882 ]
+ [-14019284.12821426]
+ [-13228510.82826504]
+ [-12424946.11990306]
+ [-11621028.1134999 ]
+ [-10816816.16925455]
+ [-10358019.77506631]
+ [ -9946866.26619452]
+ [ -9583397.55879914]
+ [ -9356975.49637406]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -9246,18 +9246,18 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[[3788172.59263784]
- [3790170.79504974]
- [3791973.30945592]
- [3793668.56667681]
- [3796350.34040181]
- [3798436.6895034 ]
- [3794356.03906149]
- [3794181.48978386]
- [3793875.88277026]
- [3791505.36404166]
- [3791549.39059229]
- [3791524.6263664 ]]</t>
+          <t>[[3788049.40296909]
+ [3789817.14706904]
+ [3791412.60686172]
+ [3793616.63605857]
+ [3795996.77663328]
+ [3797849.70914639]
+ [3793887.23644326]
+ [3793600.96852231]
+ [3793200.01151282]
+ [3791024.55784931]
+ [3791069.65430549]
+ [3791045.45344053]]</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -9280,18 +9280,18 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[[22439.11835991]
- [22457.00109487]
- [22473.71357442]
- [22490.6629146 ]
- [22518.71155234]
- [22543.09937872]
- [22505.03322873]
- [22506.04095527]
- [22506.75161215]
- [22482.83388103]
- [22486.32956576]
- [22489.38409679]]</t>
+          <t>[[22438.04677762]
+ [22453.88171422]
+ [22468.68619037]
+ [22490.10133268]
+ [22515.00212209]
+ [22536.6559264 ]
+ [22499.71625161]
+ [22499.36493984]
+ [22498.8966224 ]
+ [22477.20231802]
+ [22480.71360194]
+ [22483.77678827]]</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -9314,18 +9314,18 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[[-4515221.08172227]
- [-4217812.82325692]
- [-3915079.33373529]
- [-3472059.42112814]
- [-3016974.58057021]
- [-2553641.7691611 ]
- [-2273471.92215675]
- [-1991388.17752097]
- [-1706973.43762807]
- [-1516192.23579396]
- [-1324484.36572006]
- [-1132156.51780045]]</t>
+          <t>[[-4543327.94822805]
+ [-4244870.36322159]
+ [-3940326.93823999]
+ [-3494232.2785111 ]
+ [-3036275.42200608]
+ [-2570025.76563535]
+ [-2287918.75039807]
+ [-2003546.95769013]
+ [-1716133.08297377]
+ [-1522769.23537623]
+ [-1327989.80591727]
+ [-1132156.52006193]]</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -9348,18 +9348,18 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[[ 5.04523973e+08]
- [ 4.54900744e+08]
- [ 4.04706814e+08]
- [ 3.31932597e+08]
- [ 2.58032228e+08]
- [ 1.83486887e+08]
- [ 1.38665131e+08]
- [ 9.37869729e+07]
- [ 4.88778470e+07]
- [ 1.89671706e+07]
- [-1.08998337e+07]
- [-4.06893977e+07]]</t>
+          <t>[[ 5.07192748e+08]
+ [ 4.57451392e+08]
+ [ 4.07057445e+08]
+ [ 3.33945826e+08]
+ [ 2.59727986e+08]
+ [ 1.84859862e+08]
+ [ 1.39827959e+08]
+ [ 9.47147157e+07]
+ [ 4.95310142e+07]
+ [ 1.94125150e+07]
+ [-1.06749323e+07]
+ [-4.06893976e+07]]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9382,18 +9382,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[[9738488.85096994]
- [9738368.43058853]
- [9738247.97294188]
- [9739124.80914928]
- [9738952.27334917]
- [9738779.68218639]
- [9738696.86217031]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738928.30801639]
+ [9738807.74234188]
+ [9738687.12219613]
+ [9739391.98282757]
+ [9739219.2058558 ]
+ [9739046.35905439]
+ [9738994.29064061]
+ [9739162.20831022]
+ [9739387.79371119]
+ [9739476.09501582]
+ [9739406.90494466]
+ [9739337.70859249]]</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -9556,15 +9556,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-201.34569279]
+ [-236.66947186]
+ [-260.83840442]
+ [-279.65218829]
+ [-301.16642678]
+ [-318.72519287]
+ [-333.67446442]
+ [-305.42464858]
+ [-273.64295226]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -9591,7 +9591,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[849801.45198685]</t>
+          <t>[678653.89535084]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[62.64129024]</t>
+          <t>[64.3312003]</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[4.88536345e+09 4.88536345e+09 1.23684289e+07 0.00000000e+00
+          <t>[4.01834417e+09 4.01834417e+09 1.10503103e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -9661,8 +9661,8 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -9751,8 +9751,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1378851.63079456]</t>
+          <t>[1494381.29757545]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[3398313.75351104]</t>
+          <t>[3656288.29075319]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[3.73490975e+09 3.73490975e+09 2.40206942e+07 0.00000000e+00
+          <t>[4.04814828e+09 4.04814828e+09 2.66375631e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[849801.45198685]</t>
+          <t>[678653.89535084]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2362048.11731663]</t>
+          <t>[2009607.28793592]</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[8.41735213]</t>
+          <t>[8.51863396]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.51863396 8.51863396 8.51863396 6.         6.        ]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[0.0408672 0.025     0.025     0.025    ]</t>
+          <t>[0.02820639 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.51863396 8.51863396 8.51863396 6.         6.        ]</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[0.0408672 0.025     0.025     0.025    ]</t>
+          <t>[0.02820639 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -10651,10 +10651,10 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         28397.48972612
- 28814.94210294 30082.00382747 32243.77801283 35376.3600571
- 39591.79945657 45045.46940651 51948.16151303 60586.86438209
- 71359.80288097     0.             0.             0.
+          <t>[    0.             0.             0.         29069.68507225
+ 29496.59604729 30792.37154451 33002.9408802  36205.80484448
+ 40515.42263667 46090.4507879  53146.30144285 61976.51807142
+ 72988.80330741     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10905,10 +10905,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         28397.48972612
- 28814.94210294 30082.00382747 32243.77801283 35376.3600571
- 39591.79945657 45045.46940651 51948.16151303 60586.86438209
- 71359.80288097     0.             0.             0.
+          <t>[    0.             0.             0.         29069.68507225
+ 29496.59604729 30792.37154451 33002.9408802  36205.80484448
+ 40515.42263667 46090.4507879  53146.30144285 61976.51807142
+ 72988.80330741     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11290,10 +11290,10 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -28397.48972612
- -28814.94210294 -30082.00382747 -32243.77801283 -35376.3600571
- -39591.79945657 -45045.46940651 -51948.16151303 -60586.86438209
- -71359.80288097      0.              0.              0.
+          <t>[     0.              0.              0.         -29069.68507225
+ -29496.59604729 -30792.37154451 -33002.9408802  -36205.80484448
+ -40515.42263667 -46090.4507879  -53146.30144285 -61976.51807142
+ -72988.80330741      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[0.13052583]</t>
+          <t>[0.13057671]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[0.13       0.13052583 0.67310721 0.79177605 0.85818614 1.58321117]</t>
+          <t>[0.13       0.13057671 0.63959137 0.78872079 0.8708747  1.60903457]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[0.13052583 0.85818614 1.68381732]</t>
+          <t>[0.13057671 0.8708747  1.6865257 ]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[0.13       0.79177605 1.58321117]</t>
+          <t>[0.13       0.78872079 1.60903457]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[3.90211792 0.         0.        ]</t>
+          <t>[3.73946055 0.         0.        ]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11505,9 +11505,9 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[[  0.67223392   0.890287    -0.93719324   0.77569995  -0.40102763]
- [ -3.99604446  -2.24377732  17.65780066 -15.27001298   4.85203409]
- [ -6.87087654   1.45835719  44.8042475  -53.20922855  14.81750039]]</t>
+          <t>[[  0.52478499   0.84522705   0.26221846  -0.99732127   0.36509077]
+ [ -3.77404044  -2.43364961  15.06761186 -12.42414194   4.56422013]
+ [ -6.39717808   0.50264411  38.45104755 -41.01213355   9.45561997]]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11526,9 +11526,9 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[[  0.66913787   0.88747095  -0.92699681   0.76585452  -0.39546652]
- [ -4.0145189   -2.4355843   17.21162033 -14.90768904   5.14617191]
- [ -6.32749959   0.63516413  39.43585783 -44.28563166  11.54210929]]</t>
+          <t>[[  0.52189191   0.8424008    0.27041519  -1.0056955    0.37098761]
+ [ -3.81707734  -2.65240341  14.67520189 -12.39855715   5.19283602]
+ [ -5.98579801  -0.03956374  34.58774141 -35.08880011   7.52642045]]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11547,7 +11547,7 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[[ -0.50160229   1.4241098    8.10502811 -13.44248095   5.41494532]
+          <t>[[ -0.25527958   1.87759697   6.1780819  -12.46772283   5.66732355]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -11568,9 +11568,9 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[[  0.82768858   0.1792999    0.13219187  -0.18605352   0.04687317]
- [  8.76603851   0.94505644 -18.09611574  12.68863441  -3.30361361]
- [ -1.34713585   0.26654765   6.98758801  -6.50963911   1.60263929]]</t>
+          <t>[[ 0.72172027  0.18480831  0.56038072 -0.6678106   0.20090131]
+ [ 4.56627259  0.58432688 -7.82232183  5.12799103 -1.45626867]
+ [-1.70595416  0.19045301  7.56965743 -6.54563498  1.4914787 ]]</t>
         </is>
       </c>
       <c r="E450" t="inlineStr"/>
@@ -11589,9 +11589,9 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[[  0.82603447   0.17910215   0.13544149  -0.18839993   0.04782182]
- [  5.99213326   0.70290821 -11.47803381   7.95318672  -2.17019439]
- [ -1.63901007   0.21697671   7.58798865  -6.78758273   1.62162744]]</t>
+          <t>[[ 0.72016646  0.184659    0.56352196 -0.67044722  0.20209979]
+ [ 3.53873748  0.48249942 -5.48075927  3.57254821 -1.11302584]
+ [-2.03918485  0.14153644  8.26682937 -6.89999826  1.53081731]]</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -11610,7 +11610,7 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[[ 0.18873759  0.30801576  2.73881798 -3.21255595  0.97698462]
+          <t>[[ 0.37495372  0.38191698  2.26418024 -3.01704137  0.99599043]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11635,37 +11635,37 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[[3.50326785e-05]
- [3.53527221e-04]
- [1.28453420e-03]
- [9.52118878e-03]
- [1.77855990e-02]
- [2.83387677e-02]
- [4.11387784e-02]
- [5.61435515e-02]
- [7.33108564e-02]
- [9.25983236e-02]
- [1.13963457e-01]
- [1.37363646e-01]
- [1.62756179e-01]
- [1.90098255e-01]
- [2.19347042e-01]
- [2.50459653e-01]
- [2.66701437e-01]
- [2.83393050e-01]
- [3.00529111e-01]
- [4.58881097e-01]
- [6.63472827e-01]
- [9.09417340e-01]
- [1.34542443e+00]
- [1.87865585e+00]
- [2.48525930e+00]
- [2.87562799e+00]
- [3.28242429e+00]
- [3.70202046e+00]
- [3.98510653e+00]
- [4.26696839e+00]
- [4.54568086e+00]]</t>
+          <t>[[3.96215479e-05]
+ [3.67242598e-04]
+ [1.18688725e-03]
+ [9.17359403e-03]
+ [1.67965755e-02]
+ [2.64788898e-02]
+ [3.81828375e-02]
+ [5.18705953e-02]
+ [6.75042262e-02]
+ [8.50456899e-02]
+ [1.04456853e-01]
+ [1.25699499e-01]
+ [1.48735340e-01]
+ [1.73526026e-01]
+ [2.00033197e-01]
+ [2.28218456e-01]
+ [2.42928327e-01]
+ [2.58043291e-01]
+ [2.73558535e-01]
+ [4.24478008e-01]
+ [6.30564323e-01]
+ [8.86013720e-01]
+ [1.34265376e+00]
+ [1.89980272e+00]
+ [2.53284487e+00]
+ [2.94025649e+00]
+ [3.36564781e+00]
+ [3.80594079e+00]
+ [4.10357350e+00]
+ [4.39969333e+00]
+ [4.69187748e+00]]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>[4.54568086]</t>
+          <t>[4.69187748]</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -11711,24 +11711,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>[[-31083634.32438171]
- [-28830055.43204881]
- [-26365625.16930933]
- [-25770429.3522816 ]
- [-25172454.08451291]
- [-24568821.23752905]
- [-23956452.6977025 ]
- [-23331959.93227015]
- [-22691513.13659932]
- [-22030678.34825443]
- [-21344200.25285821]
- [-20625692.938003  ]
- [-20007153.95256281]
- [-19506358.64315527]
- [-19005563.33374794]
- [-18755165.67904408]
- [-18504768.02434047]
- [-18254370.36963667]]</t>
+          <t>[[-30387935.2018899 ]
+ [-27945535.95736747]
+ [-25287294.29211489]
+ [-24647904.5417772 ]
+ [-24005672.3571054 ]
+ [-23357654.70532976]
+ [-22700704.88180817]
+ [-22031359.47213757]
+ [-21345704.39278083]
+ [-20639208.36997512]
+ [-19906500.33153259]
+ [-19141052.15567262]
+ [-18477865.24200666]
+ [-17935109.85433516]
+ [-17392354.46666334]
+ [-17120976.77282738]
+ [-16849599.07899186]
+ [-16578221.38515626]]</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -11751,24 +11751,24 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>[[ -1085612.16157792]
- [ -8739843.74609141]
- [-24556574.26457408]
- [  3787805.89511417]
- [  3788014.18468002]
- [  3788225.84181181]
- [  3788444.08377515]
- [  3788672.53951114]
- [  3788915.46643785]
- [  3789178.02603458]
- [  3789466.67354641]
- [  3789789.75566784]
- [  3789768.10580186]
- [  3789264.26227449]
- [  3789404.26620736]
- [  3788287.2170671 ]
- [  3788321.00664442]
- [  3788354.39195336]]</t>
+          <t>[[ -1229233.40437991]
+ [ -9193563.60191038]
+ [-23850360.0362806 ]
+ [  3787799.11301987]
+ [  3788000.3228715 ]
+ [  3788204.54144712]
+ [  3788414.73427541]
+ [  3788634.24791962]
+ [  3788867.01107069]
+ [  3789117.78829561]
+ [  3789392.54204407]
+ [  3789698.98759438]
+ [  3789685.49366981]
+ [  3789225.15157243]
+ [  3789361.76522551]
+ [  3788264.72570921]
+ [  3788297.70440418]
+ [  3788330.29125627]]</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
@@ -11791,24 +11791,24 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>[[  -8773.69875082]
- [ -70838.58147592]
- [-201994.38357051]
- [  22435.48610147]
- [  22437.18463504]
- [  22438.91851948]
- [  22440.71431031]
- [  22442.60218171]
- [  22444.61775007]
- [  22446.8044078 ]
- [  22449.21663214]
- [  22451.92506   ]
- [  22451.80727939]
- [  22447.70427564]
- [  22448.91495454]
- [  22439.67863317]
- [  22439.9739941 ]
- [  22440.2669145 ]]</t>
+          <t>[[  -9940.93673252]
+ [ -74576.7950793 ]
+ [-196503.58756298]
+ [  22435.43442269]
+ [  22437.07647286]
+ [  22438.75073792]
+ [  22440.48171392]
+ [  22442.29724779]
+ [  22444.23022949]
+ [  22446.32074277]
+ [  22448.61914017]
+ [  22451.19075742]
+ [  22451.13833268]
+ [  22447.39105946]
+ [  22448.57356435]
+ [  22439.49757352]
+ [  22439.78613283]
+ [  22440.07233383]]</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -11831,24 +11831,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>[[  -56221.10033315]
- [ -857171.52937625]
- [-5042071.31328623]
- [-5747194.24032765]
- [-5670235.62612915]
- [-5592864.31116283]
- [-5515109.19157498]
- [-5436999.47603577]
- [-5358564.93822439]
- [-5279836.21152236]
- [-5200845.14427404]
- [-5121625.24170731]
- [-5042212.1691169 ]
- [-4962610.79215742]
- [-4882816.19628251]
- [-4842869.84821978]
- [-4802883.82262709]
- [-4762860.3977703 ]]</t>
+          <t>[[  -64386.36961687]
+ [ -928481.05843273]
+ [-5064566.74243366]
+ [-5738998.66824669]
+ [-5662307.78768781]
+ [-5585268.9787261 ]
+ [-5507909.46225088]
+ [-5430256.72570234]
+ [-5352338.75653036]
+ [-5274184.31474466]
+ [-5195823.26151709]
+ [-5117286.96807819]
+ [-5038608.78180809]
+ [-4959793.45865379]
+ [-4880836.69676415]
+ [-4841327.98472873]
+ [-4801792.04498072]
+ [-4762231.00408227]]</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -11871,24 +11871,24 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[[6.99122615e+06]
- [1.06588090e+08]
- [6.20604850e+08]
- [7.04633638e+08]
- [6.91738129e+08]
- [6.78792374e+08]
- [6.65800179e+08]
- [6.52765367e+08]
- [6.39691811e+08]
- [6.26583463e+08]
- [6.13444402e+08]
- [6.00278881e+08]
- [5.87091388e+08]
- [5.73882652e+08]
- [5.60652221e+08]
- [5.54031735e+08]
- [5.47406913e+08]
- [5.40778047e+08]]</t>
+          <t>[[8.00414964e+06]
+ [1.15396420e+08]
+ [6.22913438e+08]
+ [7.03094142e+08]
+ [6.90231943e+08]
+ [6.77327433e+08]
+ [6.64384172e+08]
+ [6.51405732e+08]
+ [6.38395725e+08]
+ [6.25357837e+08]
+ [6.12295864e+08]
+ [5.99213761e+08]
+ [5.86115694e+08]
+ [5.73002345e+08]
+ [5.59873299e+08]
+ [5.53305657e+08]
+ [5.46735104e+08]
+ [5.40161909e+08]]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11911,24 +11911,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[[1268857.34762299]
- [2928188.15012135]
- [5488652.39875292]
- [9738196.86072445]
- [9738159.64241193]
- [9738122.25058352]
- [9738084.50527381]
- [9738046.21401806]
- [9738007.16494754]
- [9737967.11860861]
- [9737925.79777919]
- [9737882.87389049]
- [9737837.9476941 ]
- [9737799.27256188]
- [9737767.9597651 ]
- [9737736.64716963]
- [9737720.99094745]
- [9737705.33477561]]</t>
+          <t>[[1316548.76420174]
+ [3011783.10046099]
+ [5573337.39195839]
+ [9738007.18933936]
+ [9737970.29993063]
+ [9737933.2468098 ]
+ [9737895.8601864 ]
+ [9737857.9585248 ]
+ [9737819.34202332]
+ [9737779.78488663]
+ [9737739.02572057]
+ [9737696.75469146]
+ [9737652.59522655]
+ [9737614.33563912]
+ [9737583.02403083]
+ [9737551.7126239 ]
+ [9737536.05699595]
+ [9737520.40141834]]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -11951,9 +11951,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>[[ 3.78780590e+06]
- [ 2.24354861e+04]
- [-2.63656252e+07]]</t>
+          <t>[[ 3.78779911e+06]
+ [ 2.24354344e+04]
+ [-2.52872943e+07]]</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -11976,9 +11976,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>[[-5.82371134e+06]
- [ 7.17475084e+08]
- [ 9.73819686e+06]]</t>
+          <t>[[-5.81531445e+06]
+ [ 7.15910458e+08]
+ [ 9.73800719e+06]]</t>
         </is>
       </c>
       <c r="E462" t="inlineStr"/>
@@ -12030,11 +12030,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 7.6790893  6.83954465 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -12058,11 +12058,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[0.07      0.07      0.07      0.07      0.07      0.07      0.07
- 0.07      0.07      0.07      0.07      0.07      0.07      0.07
- 0.07      0.07      0.07      0.07      0.0408672 0.0408672 0.0408672
- 0.025     0.025     0.025     0.025     0.025     0.025     0.025
- 0.025     0.025    ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02820639 0.02820639 0.02820639 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12161,11 +12161,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
- 1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829 2.12874829
+ 0.8050274  0.8050274  0.8050274  0.57136386 0.57136386 0.57136386
+ 0.54314254 0.48669988 0.43025722 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12188,11 +12188,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12215,11 +12215,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
- 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 1.2128446  1.2128446  1.2128446  1.2128446  1.2128446  1.2128446
+ 0.45750053 0.45750053 0.45750053 0.32456837 0.32456837 0.32456837
+ 0.30855375 0.27652458 0.2444955  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12242,11 +12242,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
- 17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656 37.94524656
+ 14.50823516 14.50823516 14.50823516 10.31700005 10.31700005 10.31700005
+  8.86251179  6.37675525  4.40556353  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12269,11 +12269,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
-  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+  7.25411758  7.25411758  7.25411758  5.15850002  5.15850002  5.15850002
+  4.43125589  3.18837762  2.20278177  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12296,11 +12296,11 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
- 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
-  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+ 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328 18.97262328
+  7.25411758  7.25411758  7.25411758  5.15850002  5.15850002  5.15850002
+  4.43125589  3.18837762  2.20278177  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12425,36 +12425,36 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[[-3.10836343e+07]
- [-2.88300554e+07]
- [-2.63656252e+07]
- [-2.57704294e+07]
- [-2.51724541e+07]
- [-2.45688212e+07]
- [-2.39564527e+07]
- [-2.33319599e+07]
- [-2.26915131e+07]
- [-2.20306783e+07]
- [-2.13442003e+07]
- [-2.06256929e+07]
- [-2.00071540e+07]
- [-1.95063586e+07]
- [-1.90055633e+07]
- [-1.87551657e+07]
- [-1.85047680e+07]
- [-1.82543704e+07]
- [-1.62031778e+07]
- [-1.51312272e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-3.03879352e+07]
+ [-2.79455360e+07]
+ [-2.52872943e+07]
+ [-2.46479045e+07]
+ [-2.40056724e+07]
+ [-2.33576547e+07]
+ [-2.27007049e+07]
+ [-2.20313595e+07]
+ [-2.13457044e+07]
+ [-2.06392084e+07]
+ [-1.99065003e+07]
+ [-1.91410522e+07]
+ [-1.84778652e+07]
+ [-1.79351099e+07]
+ [-1.73923545e+07]
+ [-1.71209768e+07]
+ [-1.68495991e+07]
+ [-1.65782214e+07]
+ [-1.48089617e+07]
+ [-1.40188370e+07]
+ [-1.32283357e+07]
+ [-1.24251357e+07]
+ [-1.16215710e+07]
+ [-1.08176530e+07]
+ [-1.03587844e+07]
+ [-9.94730521e+06]
+ [-9.58346890e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12477,36 +12477,36 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[[-1.08561216e+06]
- [-8.73984375e+06]
- [-2.45565743e+07]
- [ 3.78780590e+06]
- [ 3.78801418e+06]
- [ 3.78822584e+06]
- [ 3.78844408e+06]
- [ 3.78867254e+06]
- [ 3.78891547e+06]
- [ 3.78917803e+06]
- [ 3.78946667e+06]
- [ 3.78978976e+06]
- [ 3.78976811e+06]
- [ 3.78926426e+06]
- [ 3.78940427e+06]
- [ 3.78828722e+06]
- [ 3.78832101e+06]
- [ 3.78835439e+06]
- [ 3.79369455e+06]
- [ 3.79564329e+06]
- [ 3.79738021e+06]
- [ 3.79830097e+06]
- [ 3.80080997e+06]
- [ 3.80270612e+06]
- [ 3.79671386e+06]
- [ 3.79624881e+06]
- [ 3.79563418e+06]
- [ 3.79253956e+06]
- [ 3.79251343e+06]
- [ 5.38561682e+03]]</t>
+          <t>[[-1.22923340e+06]
+ [-9.19356360e+06]
+ [-2.38503600e+07]
+ [ 3.78779911e+06]
+ [ 3.78800032e+06]
+ [ 3.78820454e+06]
+ [ 3.78841473e+06]
+ [ 3.78863425e+06]
+ [ 3.78886701e+06]
+ [ 3.78911779e+06]
+ [ 3.78939254e+06]
+ [ 3.78969899e+06]
+ [ 3.78968549e+06]
+ [ 3.78922515e+06]
+ [ 3.78936177e+06]
+ [ 3.78826473e+06]
+ [ 3.78829770e+06]
+ [ 3.78833029e+06]
+ [ 3.79171940e+06]
+ [ 3.79343467e+06]
+ [ 3.79496370e+06]
+ [ 3.79710976e+06]
+ [ 3.79932488e+06]
+ [ 3.80100045e+06]
+ [ 3.79559606e+06]
+ [ 3.79505449e+06]
+ [ 3.79437773e+06]
+ [ 3.79168233e+06]
+ [ 3.79165547e+06]
+ [ 4.52755540e+03]]</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -12529,36 +12529,36 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[[-8.77369875e+03]
- [-7.08385815e+04]
- [-2.01994384e+05]
- [ 2.24354861e+04]
- [ 2.24371846e+04]
- [ 2.24389185e+04]
- [ 2.24407143e+04]
- [ 2.24426022e+04]
- [ 2.24446178e+04]
- [ 2.24468044e+04]
- [ 2.24492166e+04]
- [ 2.24519251e+04]
- [ 2.24518073e+04]
- [ 2.24477043e+04]
- [ 2.24489150e+04]
- [ 2.24396786e+04]
- [ 2.24399740e+04]
- [ 2.24402669e+04]
- [ 2.24853177e+04]
- [ 2.25030341e+04]
- [ 2.25194449e+04]
- [ 2.25302114e+04]
- [ 2.25573114e+04]
- [ 2.25806007e+04]
- [ 2.25260232e+04]
- [ 2.25247000e+04]
- [ 2.25229391e+04]
- [ 2.24925710e+04]
- [ 2.24956035e+04]
- [ 6.72750370e+01]]</t>
+          <t>[[-9.94093673e+03]
+ [-7.45767951e+04]
+ [-1.96503588e+05]
+ [ 2.24354344e+04]
+ [ 2.24370765e+04]
+ [ 2.24387507e+04]
+ [ 2.24404817e+04]
+ [ 2.24422972e+04]
+ [ 2.24442302e+04]
+ [ 2.24463207e+04]
+ [ 2.24486191e+04]
+ [ 2.24511908e+04]
+ [ 2.24511383e+04]
+ [ 2.24473911e+04]
+ [ 2.24485736e+04]
+ [ 2.24394976e+04]
+ [ 2.24397861e+04]
+ [ 2.24400723e+04]
+ [ 2.24687943e+04]
+ [ 2.24844036e+04]
+ [ 2.24988650e+04]
+ [ 2.25201253e+04]
+ [ 2.25440734e+04]
+ [ 2.25646676e+04]
+ [ 2.25151625e+04]
+ [ 2.25127459e+04]
+ [ 2.25100567e+04]
+ [ 2.24836644e+04]
+ [ 2.24866899e+04]
+ [ 5.83600646e+01]]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12581,36 +12581,36 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[[-5.62211003e+04]
- [-8.57171529e+05]
- [-5.04207131e+06]
- [-5.74719424e+06]
- [-5.67023563e+06]
- [-5.59286431e+06]
- [-5.51510919e+06]
- [-5.43699948e+06]
- [-5.35856494e+06]
- [-5.27983621e+06]
- [-5.20084514e+06]
- [-5.12162524e+06]
- [-5.04221217e+06]
- [-4.96261079e+06]
- [-4.88281620e+06]
- [-4.84286985e+06]
- [-4.80288382e+06]
- [-4.76286040e+06]
- [-4.45306187e+06]
- [-4.13785543e+06]
- [-3.81861558e+06]
- [-3.35399652e+06]
- [-2.87924266e+06]
- [-2.39817559e+06]
- [-2.10846079e+06]
- [-1.81755287e+06]
- [-1.52507458e+06]
- [-1.32939418e+06]
- [-1.13313959e+06]
- [-6.63706181e-04]]</t>
+          <t>[[-6.43863696e+04]
+ [-9.28481058e+05]
+ [-5.06456674e+06]
+ [-5.73899867e+06]
+ [-5.66230779e+06]
+ [-5.58526898e+06]
+ [-5.50790946e+06]
+ [-5.43025673e+06]
+ [-5.35233876e+06]
+ [-5.27418431e+06]
+ [-5.19582326e+06]
+ [-5.11728697e+06]
+ [-5.03860878e+06]
+ [-4.95979346e+06]
+ [-4.88083670e+06]
+ [-4.84132798e+06]
+ [-4.80179204e+06]
+ [-4.76223100e+06]
+ [-4.45558962e+06]
+ [-4.14249652e+06]
+ [-3.82426025e+06]
+ [-3.36008408e+06]
+ [-2.88568207e+06]
+ [-2.40461479e+06]
+ [-2.11452417e+06]
+ [-1.82279728e+06]
+ [-1.52873647e+06]
+ [-1.33140074e+06]
+ [-1.13300931e+06]
+ [-5.75704900e-04]]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12633,36 +12633,36 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>[[ 6.99122615e+06]
- [ 1.06588090e+08]
- [ 6.20604850e+08]
- [ 7.04633638e+08]
- [ 6.91738129e+08]
- [ 6.78792374e+08]
- [ 6.65800179e+08]
- [ 6.52765367e+08]
- [ 6.39691811e+08]
- [ 6.26583463e+08]
- [ 6.13444402e+08]
- [ 6.00278881e+08]
- [ 5.87091388e+08]
- [ 5.73882652e+08]
- [ 5.60652221e+08]
- [ 5.54031735e+08]
- [ 5.47406913e+08]
- [ 5.40778047e+08]
- [ 4.89621006e+08]
- [ 4.37881912e+08]
- [ 3.85736426e+08]
- [ 3.10432293e+08]
- [ 2.34259662e+08]
- [ 1.57695570e+08]
- [ 1.11801752e+08]
- [ 6.59456284e+07]
- [ 2.01601616e+07]
- [-1.02711127e+07]
- [-4.06106992e+07]
- [ 5.31341929e-02]]</t>
+          <t>[[ 8.00414964e+06]
+ [ 1.15396420e+08]
+ [ 6.22913438e+08]
+ [ 7.03094142e+08]
+ [ 6.90231943e+08]
+ [ 6.77327433e+08]
+ [ 6.64384172e+08]
+ [ 6.51405732e+08]
+ [ 6.38395725e+08]
+ [ 6.25357837e+08]
+ [ 6.12295864e+08]
+ [ 5.99213761e+08]
+ [ 5.86115694e+08]
+ [ 5.73002345e+08]
+ [ 5.59873299e+08]
+ [ 5.53305657e+08]
+ [ 5.46735104e+08]
+ [ 5.40161909e+08]
+ [ 4.89385943e+08]
+ [ 4.37909981e+08]
+ [ 3.85904858e+08]
+ [ 3.10689635e+08]
+ [ 2.34589373e+08]
+ [ 1.58054853e+08]
+ [ 1.12139833e+08]
+ [ 6.62272130e+07]
+ [ 2.03413772e+07]
+ [-1.01817912e+07]
+ [-4.06232385e+07]
+ [ 4.46669142e-02]]</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -12685,35 +12685,35 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[[1268857.34762299]
- [2928188.15012135]
- [5488652.39875292]
- [9738196.86072445]
- [9738159.64241193]
- [9738122.25058352]
- [9738084.50527381]
- [9738046.21401806]
- [9738007.16494754]
- [9737967.11860861]
- [9737925.79777919]
- [9737882.87389049]
- [9737837.9476941 ]
- [9737799.27256188]
- [9737767.9597651 ]
- [9737736.64716963]
- [9737720.99094745]
- [9737705.33477561]
- [9738488.58708406]
- [9738368.32296449]
- [9738247.90556381]
- [9739124.74652101]
- [9738952.27408506]
- [9738779.74439802]
- [9738696.98055442]
- [9738788.87033335]
- [9738911.07638568]
- [9738933.45190322]
- [9738864.35339327]
+          <t>[[1316548.76420174]
+ [3011783.10046099]
+ [5573337.39195839]
+ [9738007.18933936]
+ [9737970.29993063]
+ [9737933.2468098 ]
+ [9737895.8601864 ]
+ [9737857.9585248 ]
+ [9737819.34202332]
+ [9737779.78488663]
+ [9737739.02572057]
+ [9737696.75469146]
+ [9737652.59522655]
+ [9737614.33563912]
+ [9737583.02403083]
+ [9737551.7126239 ]
+ [9737536.05699595]
+ [9737520.40141834]
+ [9738927.95374524]
+ [9738807.61665384]
+ [9738687.05396756]
+ [9739391.94517891]
+ [9739219.24661072]
+ [9739046.47576753]
+ [9738994.47989688]
+ [9739162.40130854]
+ [9739387.91904449]
+ [9739476.11681775]
+ [9739406.89068818]
  [      0.        ]]</t>
         </is>
       </c>
@@ -12737,24 +12737,24 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[[-1.41054133e+07]
- [ 1.15430936e+07]
- [ 1.39247751e+08]
- [ 1.60222203e+08]
- [ 1.57354358e+08]
- [ 1.54477034e+08]
- [ 1.51592733e+08]
- [ 1.48704121e+08]
- [ 1.45814101e+08]
- [ 1.42925902e+08]
- [ 1.40043203e+08]
- [ 1.37170302e+08]
- [ 1.34241101e+08]
- [ 1.31246729e+08]
- [ 1.28247020e+08]
- [ 1.26745869e+08]
- [ 1.25243652e+08]
- [ 1.23740439e+08]]</t>
+          <t>[[-1.24780509e+07]
+ [ 1.27794256e+07]
+ [ 1.27968526e+08]
+ [ 1.46269933e+08]
+ [ 1.43684045e+08]
+ [ 1.41091376e+08]
+ [ 1.38494204e+08]
+ [ 1.35894956e+08]
+ [ 1.33296284e+08]
+ [ 1.30701143e+08]
+ [ 1.28112908e+08]
+ [ 1.25535534e+08]
+ [ 1.22906539e+08]
+ [ 1.20217539e+08]
+ [ 1.17525015e+08]
+ [ 1.16178054e+08]
+ [ 1.14830439e+08]
+ [ 1.13482230e+08]]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12777,24 +12777,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[[ 1126414.38709911]
- [ 8172057.10738448]
- [22624409.61818952]
- [ 4583362.30461236]
- [ 4583543.90101256]
- [ 4583728.48612314]
- [ 4583918.91347896]
- [ 4584118.40304432]
- [ 4584330.73414627]
- [ 4584560.49079247]
- [ 4584813.40874667]
- [ 4585096.90808353]
- [ 4585072.03140638]
- [ 4584616.92714375]
- [ 4584738.21495062]
- [ 4583735.91778951]
- [ 4583764.19414   ]
- [ 4583792.10915655]]</t>
+          <t>[[ 1161327.16024734]
+ [ 7918485.29423672]
+ [20291080.33312789]
+ [ 4216207.04961832]
+ [ 4216368.81304766]
+ [ 4216533.03893115]
+ [ 4216702.15338866]
+ [ 4216878.89539853]
+ [ 4217066.48187393]
+ [ 4217268.81601971]
+ [ 4217490.78474145]
+ [ 4217738.71477638]
+ [ 4217722.63201093]
+ [ 4217338.77005252]
+ [ 4217447.89819619]
+ [ 4216539.83727204]
+ [ 4216565.27207141]
+ [ 4216590.38379304]]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12819,17 +12819,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [ -9286385.98127209]
- [-17578136.98622376]
- [-15597429.54733162]
- [-13634256.55372371]
- [-11689729.24806874]
- [ -9765574.25041953]
- [ -7864209.78121471]
- [ -5988855.26970057]
- [ -4143682.13901079]
- [ -2334016.81690459]
- [  -719403.18007161]
+ [ -8767265.74370489]
+ [-16595497.81240786]
+ [-14725514.32126346]
+ [-12872085.07865086]
+ [-11036259.20742606]
+ [ -9219666.80748706]
+ [ -7424590.9178174 ]
+ [ -5654070.99766443]
+ [ -3912045.28255004]
+ [ -2203542.44646246]
+ [  -679187.66991118]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -12893,24 +12893,24 @@
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[[0.06438822]
- [0.08258713]
- [0.67531343]
- [0.76815784]
- [0.75013218]
- [0.7321624 ]
- [0.71426479]
- [0.69645801]
- [0.67876348]
- [0.66120593]
- [0.64381412]
- [0.6266218 ]
- [0.60969466]
- [0.59454869]
- [0.58101018]
- [0.57423501]
- [0.56745583]
- [0.56067249]]</t>
+          <t>[[0.05715088]
+ [0.08476554]
+ [0.62015329]
+ [0.70270584]
+ [0.68621917]
+ [0.66979679]
+ [0.65345378]
+ [0.63720745]
+ [0.6210777 ]
+ [0.60508755]
+ [0.58926375]
+ [0.57363776]
+ [0.55827133]
+ [0.5445949 ]
+ [0.53244299]
+ [0.5263638 ]
+ [0.52028239]
+ [0.5141986 ]]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12929,24 +12929,24 @@
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[[0.0692893 ]
- [0.10691408]
- [0.38402112]
- [0.11943824]
- [0.11058377]
- [0.10212526]
- [0.09413767]
- [0.08671575]
- [0.07997571]
- [0.07269265]
- [0.06601933]
- [0.06031436]
- [0.05614927]
- [0.05417   ]
- [0.05327332]
- [0.04829706]
- [0.04786333]
- [0.04743114]]</t>
+          <t>[[0.06160492]
+ [0.09597697]
+ [0.32837768]
+ [0.10418156]
+ [0.0962224 ]
+ [0.08862635]
+ [0.08146526]
+ [0.07483059]
+ [0.06794616]
+ [0.06156553]
+ [0.05592522]
+ [0.05116046]
+ [0.04774677]
+ [0.04608819]
+ [0.04523153]
+ [0.04102994]
+ [0.04061781]
+ [0.04020767]]</t>
         </is>
       </c>
       <c r="E489" t="inlineStr"/>
@@ -12965,24 +12965,24 @@
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[[0.10572991]
- [0.22484485]
- [0.86623708]
- [0.96999245]
- [0.95130154]
- [0.93254559]
- [0.9137175 ]
- [0.89480918]
- [0.87581108]
- [0.85671164]
- [0.83749657]
- [0.81814774]
- [0.79918491]
- [0.78067223]
- [0.76214998]
- [0.75288886]
- [0.74362671]
- [0.73436391]]</t>
+          <t>[[0.09423174]
+ [0.2080145 ]
+ [0.76899702]
+ [0.85658757]
+ [0.8399153 ]
+ [0.82319327]
+ [0.80641476]
+ [0.78957211]
+ [0.77265635]
+ [0.75565667]
+ [0.73855973]
+ [0.72134871]
+ [0.70449052]
+ [0.68804325]
+ [0.67159363]
+ [0.66337102]
+ [0.65514894]
+ [0.6469277 ]]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -13005,36 +13005,36 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[[-1.41054133e+07]
- [ 1.15430936e+07]
- [ 1.39247751e+08]
- [ 1.60222203e+08]
- [ 1.57354358e+08]
- [ 1.54477034e+08]
- [ 1.51592733e+08]
- [ 1.48704121e+08]
- [ 1.45814101e+08]
- [ 1.42925902e+08]
- [ 1.40043203e+08]
- [ 1.37170302e+08]
- [ 1.34241101e+08]
- [ 1.31246729e+08]
- [ 1.28247020e+08]
- [ 1.26745869e+08]
- [ 1.25243652e+08]
- [ 1.20442368e+08]
- [ 2.11390214e+08]
- [ 1.88467331e+08]
- [ 1.65357050e+08]
- [ 2.13489194e+08]
- [ 1.57708807e+08]
- [ 1.01635767e+08]
- [ 7.47914135e+07]
- [ 4.73743607e+07]
- [ 5.88351052e+06]
- [-4.99179246e+06]
- [ 3.60956867e+07]
- [ 7.11417193e-02]]</t>
+          <t>[[-1.24780509e+07]
+ [ 1.27794256e+07]
+ [ 1.27968526e+08]
+ [ 1.46269933e+08]
+ [ 1.43684045e+08]
+ [ 1.41091376e+08]
+ [ 1.38494204e+08]
+ [ 1.35894956e+08]
+ [ 1.33296284e+08]
+ [ 1.30701143e+08]
+ [ 1.28112908e+08]
+ [ 1.25535534e+08]
+ [ 1.22906539e+08]
+ [ 1.20217539e+08]
+ [ 1.17525015e+08]
+ [ 1.16178054e+08]
+ [ 1.14830439e+08]
+ [ 1.13482230e+08]
+ [ 2.68963438e+08]
+ [ 2.39719971e+08]
+ [ 2.10166297e+08]
+ [ 2.34801582e+08]
+ [ 1.73372478e+08]
+ [ 1.11586227e+08]
+ [ 8.34234266e+07]
+ [ 5.49835323e+07]
+ [ 7.45116468e+06]
+ [-6.13251614e+06]
+ [ 4.51288152e+07]
+ [ 7.45694832e-02]]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13057,36 +13057,36 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[[1.12641439e+06]
- [8.17205711e+06]
- [2.26244096e+07]
- [4.58336230e+06]
- [4.58354390e+06]
- [4.58372849e+06]
- [4.58391891e+06]
- [4.58411840e+06]
- [4.58433073e+06]
- [4.58456049e+06]
- [4.58481341e+06]
- [4.58509691e+06]
- [4.58507203e+06]
- [4.58461693e+06]
- [4.58473821e+06]
- [4.58373592e+06]
- [4.58376419e+06]
- [4.55409933e+06]
- [8.34997548e+06]
- [8.35308142e+06]
- [8.35584672e+06]
- [1.36292059e+07]
- [1.36357294e+07]
- [1.36406438e+07]
- [1.43855174e+07]
- [1.61759797e+07]
- [1.84422016e+07]
- [1.98047338e+07]
- [1.98045961e+07]
- [1.88672646e+04]]</t>
+          <t>[[1.16132716e+06]
+ [7.91848529e+06]
+ [2.02910803e+07]
+ [4.21620705e+06]
+ [4.21636881e+06]
+ [4.21653304e+06]
+ [4.21670215e+06]
+ [4.21687890e+06]
+ [4.21706648e+06]
+ [4.21726882e+06]
+ [4.21749078e+06]
+ [4.21773871e+06]
+ [4.21772263e+06]
+ [4.21733877e+06]
+ [4.21744790e+06]
+ [4.21653984e+06]
+ [4.21656527e+06]
+ [4.21659038e+06]
+ [1.11471945e+07]
+ [1.11509085e+07]
+ [1.11542154e+07]
+ [1.57200125e+07]
+ [1.57267663e+07]
+ [1.57318577e+07]
+ [1.67513744e+07]
+ [1.92678998e+07]
+ [2.26155876e+07]
+ [2.47246102e+07]
+ [2.47244350e+07]
+ [1.98175399e+04]]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -13111,34 +13111,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-9.28638598e+06]
- [-1.75781370e+07]
- [-1.55974295e+07]
- [-1.36342566e+07]
- [-1.16897292e+07]
- [-9.76557425e+06]
- [-7.86420978e+06]
- [-5.98885527e+06]
- [-4.14368214e+06]
- [-2.33401682e+06]
- [-7.19403180e+05]
+ [-8.76726574e+06]
+ [-1.65954978e+07]
+ [-1.47255143e+07]
+ [-1.28720851e+07]
+ [-1.10362592e+07]
+ [-9.21966681e+06]
+ [-7.42459092e+06]
+ [-5.65407100e+06]
+ [-3.91204528e+06]
+ [-2.20354245e+06]
+ [-6.79187670e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.00430190e+03]
- [-3.63283982e+03]
- [-4.08662445e+03]
- [-4.41730043e+03]
- [-7.74663642e+03]
- [-8.24489127e+03]
- [-8.66182953e+03]
- [-8.58341336e+03]
- [-8.00992605e+03]
- [-7.39261483e+03]
- [-7.11306770e+03]
- [-7.19770642e+03]
- [-7.27930418e+03]]</t>
+ [-9.72471079e+02]
+ [-5.61484132e+03]
+ [-6.31620136e+03]
+ [-6.82728725e+03]
+ [-1.03190952e+04]
+ [-1.09828077e+04]
+ [-1.15382004e+04]
+ [-1.13431094e+04]
+ [-1.03918268e+04]
+ [-9.37471304e+03]
+ [-8.89877508e+03]
+ [-9.00466201e+03]
+ [-9.10674456e+03]]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -13209,36 +13209,36 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[[6.43882177e-02]
- [8.25871313e-02]
- [6.75313425e-01]
- [7.68157836e-01]
- [7.50132182e-01]
- [7.32162398e-01]
- [7.14264787e-01]
- [6.96458006e-01]
- [6.78763480e-01]
- [6.61205935e-01]
- [6.43814117e-01]
- [6.26621796e-01]
- [6.09694658e-01]
- [5.94548688e-01]
- [5.81010180e-01]
- [5.74235006e-01]
- [5.67455831e-01]
- [5.45777928e-01]
- [9.58094068e-01]
- [8.54716671e-01]
- [7.50569809e-01]
- [9.71243416e-01]
- [7.21088638e-01]
- [4.71843230e-01]
- [3.56479039e-01]
- [2.48888636e-01]
- [1.46869793e-01]
- [1.56739745e-01]
- [2.25172826e-01]
- [1.51387786e-04]]</t>
+          <t>[[5.71508828e-02]
+ [8.47655386e-02]
+ [6.20153290e-01]
+ [7.02705838e-01]
+ [6.86219172e-01]
+ [6.69796789e-01]
+ [6.53453778e-01]
+ [6.37207447e-01]
+ [6.21077704e-01]
+ [6.05087548e-01]
+ [5.89263746e-01]
+ [5.73637756e-01]
+ [5.58271331e-01]
+ [5.44594899e-01]
+ [5.32442988e-01]
+ [5.26363799e-01]
+ [5.20282392e-01]
+ [5.14200791e-01]
+ [1.21932467e+00]
+ [1.08747786e+00]
+ [9.54339336e-01]
+ [1.06884925e+00]
+ [7.93586652e-01]
+ [5.19414749e-01]
+ [3.99406529e-01]
+ [2.90854212e-01]
+ [1.80302566e-01]
+ [1.95612772e-01]
+ [2.81327386e-01]
+ [1.60578292e-04]]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13257,36 +13257,36 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[0.0692893 ]
- [0.10691408]
- [0.38402112]
- [0.11943824]
- [0.11058377]
- [0.10212526]
- [0.09413767]
- [0.08671575]
- [0.07997571]
- [0.07269265]
- [0.06601933]
- [0.06031436]
- [0.05614927]
- [0.05417   ]
- [0.05327332]
- [0.04829706]
- [0.04786333]
- [0.04785612]
- [0.15287176]
- [0.14847337]
- [0.14413363]
- [0.41137743]
- [0.40234811]
- [0.39333559]
- [0.33538324]
- [0.34449472]
- [0.35795753]
- [0.32581523]
- [0.32316353]
- [0.00051442]]</t>
+          <t>[[0.06160492]
+ [0.09597697]
+ [0.32837768]
+ [0.10418156]
+ [0.0962224 ]
+ [0.08862635]
+ [0.08146526]
+ [0.07483059]
+ [0.06794616]
+ [0.06156553]
+ [0.05592522]
+ [0.05116046]
+ [0.04774677]
+ [0.04608819]
+ [0.04523153]
+ [0.04102994]
+ [0.04061781]
+ [0.04020723]
+ [0.29360863]
+ [0.28750794]
+ [0.2814222 ]
+ [0.64100655]
+ [0.62864982]
+ [0.61626288]
+ [0.52138507]
+ [0.53644028]
+ [0.55978186]
+ [0.50493697]
+ [0.50160893]
+ [0.0008132 ]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -13305,36 +13305,36 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[3.72052682e-01]
- [5.64428222e-01]
- [1.63460375e+00]
- [1.80032458e+00]
- [1.75826975e+00]
- [1.71633694e+00]
- [1.67446406e+00]
- [1.63258608e+00]
- [1.59063249e+00]
- [1.54852436e+00]
- [1.50617059e+00]
- [1.46346261e+00]
- [1.42325645e+00]
- [1.38582525e+00]
- [1.34861151e+00]
- [1.33009112e+00]
- [1.31162625e+00]
- [1.27569366e+00]
- [2.44716206e+00]
- [2.16737706e+00]
- [1.89555096e+00]
- [2.85031471e+00]
- [2.18166300e+00]
- [1.54713072e+00]
- [1.34908625e+00]
- [1.27038733e+00]
- [1.04272209e+00]
- [1.03575144e+00]
- [1.58066502e+00]
- [5.04337670e-10]]</t>
+          <t>[[3.31015815e-01]
+ [5.28910223e-01]
+ [1.53108845e+00]
+ [1.68094181e+00]
+ [1.64139670e+00]
+ [1.60196634e+00]
+ [1.56259567e+00]
+ [1.52322678e+00]
+ [1.48379663e+00]
+ [1.44423450e+00]
+ [1.40445850e+00]
+ [1.36437077e+00]
+ [1.32651151e+00]
+ [1.29112960e+00]
+ [1.25595085e+00]
+ [1.23844223e+00]
+ [1.22098543e+00]
+ [1.20358066e+00]
+ [3.31631647e+00]
+ [2.94284251e+00]
+ [2.57837706e+00]
+ [3.24362387e+00]
+ [2.47977027e+00]
+ [1.74987352e+00]
+ [1.55371485e+00]
+ [1.54379234e+00]
+ [1.34157964e+00]
+ [1.38580486e+00]
+ [2.36577937e+00]
+ [5.67242709e-10]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -13357,8 +13357,8 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[201.34569279 236.66947186 260.83840442 279.65218829 301.16642678
+ 318.72519287 333.67446442 305.42464858 273.64295226 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13478,8 +13478,8 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[201.34569279 236.66947186 260.83840442 279.65218829 301.16642678
+ 318.72519287 333.67446442 305.42464858 273.64295226 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13668,8 +13668,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-201.34569279 -236.66947186 -260.83840442 -279.65218829 -301.16642678
+ -318.72519287 -333.67446442 -305.42464858 -273.64295226 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -13718,18 +13718,18 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[[ 2.18274341e+08]
- [ 1.96329317e+08]
- [ 1.74120887e+08]
- [ 2.29630013e+08]
- [ 1.75555894e+08]
- [ 1.20998487e+08]
- [ 9.67589981e+07]
- [ 7.47071714e+07]
- [ 4.03341819e+07]
- [ 6.61671306e+06]
- [-3.59513545e+06]
- [ 3.67633484e+07]]</t>
+          <t>[[ 2.79417871e+08]
+ [ 2.51193381e+08]
+ [ 2.22586073e+08]
+ [ 2.54004387e+08]
+ [ 1.94130105e+08]
+ [ 1.33719941e+08]
+ [ 1.08726063e+08]
+ [ 8.74102614e+07]
+ [ 4.99460893e+07]
+ [ 9.23123580e+06]
+ [-4.75351052e+06]
+ [ 4.58024211e+07]]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13752,18 +13752,18 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[[ 8341095.85959218]
- [ 8344281.30046145]
- [ 8347152.05747502]
- [13617042.07355613]
- [13624019.25313861]
- [13629432.95461941]
- [14379056.47988317]
- [16169774.14985666]
- [18436366.891573  ]
- [19801110.8858031 ]
- [19801218.94037502]
- [19801086.01299564]]</t>
+          <t>[[11139172.48458941]
+ [11143001.14331359]
+ [11146453.20204164]
+ [15709249.7739809 ]
+ [15716512.01876215]
+ [15722149.86810221]
+ [16745835.92614353]
+ [19262643.06897152]
+ [22610770.41514272]
+ [24721731.19901512]
+ [24721870.9116126 ]
+ [24721707.31692287]]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13786,18 +13786,18 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>[[-3632.83981739]
- [-4086.62445161]
- [-4417.30043171]
- [-7746.63641764]
- [-8244.89127039]
- [-8661.82952753]
- [-8583.41336499]
- [-8009.92605495]
- [-7392.61483222]
- [-7113.06770454]
- [-7197.70642314]
- [-7279.30418072]]</t>
+          <t>[[ -5614.84131547]
+ [ -6316.20136452]
+ [ -6827.28725006]
+ [-10319.09518903]
+ [-10982.80766715]
+ [-11538.20039908]
+ [-11343.10941508]
+ [-10391.82682494]
+ [ -9374.71304233]
+ [ -8898.77507804]
+ [ -9004.66201052]
+ [ -9106.7445608 ]]</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13850,18 +13850,18 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[[0.98914739]
- [0.89016133]
- [0.7900486 ]
- [1.04380696]
- [0.80097553]
- [0.55745848]
- [0.45179859]
- [0.36078108]
- [0.23263209]
- [0.15794274]
- [0.15592881]
- [0.22735224]]</t>
+          <t>[[1.26647576]
+ [1.13919293]
+ [1.01027037]
+ [1.15513569]
+ [0.88641838]
+ [0.61708278]
+ [0.50884855]
+ [0.42308139]
+ [0.28700832]
+ [0.19807024]
+ [0.19480594]
+ [0.28353026]]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -13880,18 +13880,18 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[[0.15278528]
- [0.14838517]
- [0.14404444]
- [0.41112612]
- [0.4021022 ]
- [0.39309668]
- [0.33527369]
- [0.34439705]
- [0.35787325]
- [0.32577244]
- [0.32312336]
- [0.32048597]]</t>
+          <t>[[0.29348806]
+ [0.28738573]
+ [0.2812997 ]
+ [0.64070016]
+ [0.62835183]
+ [0.61597538]
+ [0.52125436]
+ [0.53632876]
+ [0.55969213]
+ [0.50489497]
+ [0.5015712 ]
+ [0.49825206]]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13910,18 +13910,18 @@
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[[2.66291173]
- [2.39315306]
- [2.1238869 ]
- [2.97823982]
- [2.33455444]
- [1.69729356]
- [1.47656174]
- [1.3372872 ]
- [1.02492779]
- [0.65824164]
- [0.51122602]
- [0.99323826]]</t>
+          <t>[[4.62665768]
+ [4.16404164]
+ [3.70094765]
+ [4.43789503]
+ [3.48071598]
+ [2.53101648]
+ [2.23717856]
+ [2.12582289]
+ [1.77240334]
+ [1.15005747]
+ [0.84671443]
+ [1.80703047]]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13944,7 +13944,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[0.15929249]</t>
+          <t>[0.1519354]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[0.16030612]</t>
+          <t>[0.15292257]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[0.15929249 0.16030612 0.68032729 0.92789911 1.04531924 2.42825705]</t>
+          <t>[0.1519354  0.15292257 0.636218   0.86504035 0.98198277 2.41784739]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14009,12 +14009,12 @@
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[[ 1.08424530e+00 -1.70864368e-01  8.35540222e-01 -1.27026183e+00
-   5.21340673e-01]
- [-6.23900199e+02  7.74943444e+02 -5.56903741e+02  5.10191513e+02
-  -1.03609504e+02]
- [-9.38754234e+01  1.50984393e+02 -2.15124230e+01 -1.04196904e+01
-  -2.41768557e+01]]</t>
+          <t>[[ 1.16555696e+00 -5.37822656e-02 -1.95884415e-02 -2.35110869e-01
+   1.42924620e-01]
+ [ 2.54625647e+02 -3.45579648e+02  2.57046505e+02 -1.54914848e+02
+  -1.01776552e+01]
+ [-1.07566188e+02  2.12245781e+02 -1.56769699e+02  1.28630479e+02
+  -7.55403729e+01]]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -14033,9 +14033,12 @@
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>[[   1.07781229   -0.16436505    0.83162701   -1.26835682    0.52328256]
- [ 104.45143331 -124.10457725   89.00931393  -77.88723689    9.53106689]
- [ -87.01268729  139.55194606  -28.5252231     4.32354865  -27.33758432]]</t>
+          <t>[[ 1.15851136e+00 -4.63202341e-02 -2.22208213e-02 -2.37544903e-01
+   1.47574598e-01]
+ [ 6.52172264e+01 -8.35210520e+01  5.72986955e+01 -2.79172120e+01
+  -1.00776579e+01]
+ [-1.01805435e+02  1.99989572e+02 -1.53074867e+02  1.29573313e+02
+  -7.36825840e+01]]</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14054,7 +14057,7 @@
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[[  6.24317838 -19.41956199  31.14246364 -24.36153498   7.39545494]
+          <t>[[  7.25991074 -24.33398313  39.84049605 -31.17183274   9.40540907]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -14079,7 +14082,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[0.16030612 1.04531924 2.50543076]</t>
+          <t>[0.15292257 0.98198277 2.47972152]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -14102,7 +14105,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[0.15929249 0.92789911 2.42825705]</t>
+          <t>[0.1519354  0.86504035 2.41784739]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -14125,7 +14128,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[4.53334932 0.         0.        ]</t>
+          <t>[4.15211869 0.         0.        ]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -14149,18 +14152,18 @@
       <c r="D529" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.02635203]
- [0.10035185]
- [0.21731231]
- [0.47336811]
- [0.83337789]
- [1.27420101]
- [1.56914025]
- [1.88449638]
- [2.21817556]
- [2.44786461]
- [2.67981411]
- [2.91046503]]</t>
+ [0.03177027]
+ [0.12071548]
+ [0.26122737]
+ [0.55884767]
+ [0.96449768]
+ [1.45417066]
+ [1.77994799]
+ [2.12819484]
+ [2.49791874]
+ [2.75331772]
+ [3.0116018 ]
+ [3.26830019]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14183,7 +14186,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[2.91046503]</t>
+          <t>[3.26830019]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14206,17 +14209,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[-16204135.81615996]
- [-15131827.00028135]
- [-14059260.05505748]
- [-13117956.67907289]
- [-12176317.89202564]
- [-11234399.61479934]
- [-10692773.72291407]
- [-10198366.94882868]
- [ -9751211.14539434]
- [ -9468851.22077094]
- [ -9186467.52414183]
+          <t>[[-14809785.3732882 ]
+ [-14019284.12821426]
+ [-13228510.82826504]
+ [-12424946.11990306]
+ [-11621028.1134999 ]
+ [-10816816.16925455]
+ [-10358019.77506631]
+ [ -9946866.26619452]
+ [ -9583397.55879914]
+ [ -9356975.49637406]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -14240,18 +14243,18 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[3788172.59263784]
- [3790170.79504974]
- [3791973.30945592]
- [3793668.56667681]
- [3796350.34040181]
- [3798436.6895034 ]
- [3794356.03906149]
- [3794181.48978386]
- [3793875.88277026]
- [3791505.36404166]
- [3791549.39059229]
- [3791524.6263664 ]]</t>
+          <t>[[3788049.40296909]
+ [3789817.14706904]
+ [3791412.60686172]
+ [3793616.63605857]
+ [3795996.77663328]
+ [3797849.70914639]
+ [3793887.23644326]
+ [3793600.96852231]
+ [3793200.01151282]
+ [3791024.55784931]
+ [3791069.65430549]
+ [3791045.45344053]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14274,18 +14277,18 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[22439.11835991]
- [22457.00109487]
- [22473.71357442]
- [22490.6629146 ]
- [22518.71155234]
- [22543.09937872]
- [22505.03322873]
- [22506.04095527]
- [22506.75161215]
- [22482.83388103]
- [22486.32956576]
- [22489.38409679]]</t>
+          <t>[[22438.04677762]
+ [22453.88171422]
+ [22468.68619037]
+ [22490.10133268]
+ [22515.00212209]
+ [22536.6559264 ]
+ [22499.71625161]
+ [22499.36493984]
+ [22498.8966224 ]
+ [22477.20231802]
+ [22480.71360194]
+ [22483.77678827]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14308,18 +14311,18 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[-4515221.08172227]
- [-4217812.82325692]
- [-3915079.33373529]
- [-3472059.42112814]
- [-3016974.58057021]
- [-2553641.7691611 ]
- [-2273471.92215675]
- [-1991388.17752097]
- [-1706973.43762807]
- [-1516192.23579396]
- [-1324484.36572006]
- [-1132156.51780045]]</t>
+          <t>[[-4543327.94822805]
+ [-4244870.36322159]
+ [-3940326.93823999]
+ [-3494232.2785111 ]
+ [-3036275.42200608]
+ [-2570025.76563535]
+ [-2287918.75039807]
+ [-2003546.95769013]
+ [-1716133.08297377]
+ [-1522769.23537623]
+ [-1327989.80591727]
+ [-1132156.52006193]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14342,18 +14345,18 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>[[ 5.04523973e+08]
- [ 4.54900744e+08]
- [ 4.04706814e+08]
- [ 3.31932597e+08]
- [ 2.58032228e+08]
- [ 1.83486887e+08]
- [ 1.38665131e+08]
- [ 9.37869729e+07]
- [ 4.88778470e+07]
- [ 1.89671706e+07]
- [-1.08998337e+07]
- [-4.06893977e+07]]</t>
+          <t>[[ 5.07192748e+08]
+ [ 4.57451392e+08]
+ [ 4.07057445e+08]
+ [ 3.33945826e+08]
+ [ 2.59727986e+08]
+ [ 1.84859862e+08]
+ [ 1.39827959e+08]
+ [ 9.47147157e+07]
+ [ 4.95310142e+07]
+ [ 1.94125150e+07]
+ [-1.06749323e+07]
+ [-4.06893976e+07]]</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -14376,18 +14379,18 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[[9738488.85096994]
- [9738368.43058853]
- [9738247.97294188]
- [9739124.80914928]
- [9738952.27334917]
- [9738779.68218639]
- [9738696.86217031]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738928.30801639]
+ [9738807.74234188]
+ [9738687.12219613]
+ [9739391.98282757]
+ [9739219.2058558 ]
+ [9739046.35905439]
+ [9738994.29064061]
+ [9739162.20831022]
+ [9739387.79371119]
+ [9739476.09501582]
+ [9739406.90494466]
+ [9739337.70859249]]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
@@ -14410,9 +14413,9 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[  3787067.18771894]
- [    22429.54651141]
- [-17276086.38351376]]</t>
+          <t>[[  3787067.18771607]
+ [    22429.54651138]
+ [-15599910.06522317]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14435,8 +14438,8 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[-4.80594361e+06]
- [ 5.53400957e+08]
+          <t>[[-4.83439966e+06]
+ [ 5.56110341e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -14460,7 +14463,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1801135.93540648]</t>
+          <t>[1629988.37877047]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14483,7 +14486,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[-3.87679433e+00 -5.24445062e-02  1.18059426e+02]</t>
+          <t>[-4.28385483e+00 -5.79511400e-02  1.24581891e+02]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14506,7 +14509,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[3.05271898e+10 3.04214533e+10 2.65555934e+08 8.52611923e+02
+          <t>[2.96601705e+10 2.95544340e+10 2.64237815e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -14526,8 +14529,8 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[120.24788761 120.24788761 120.24788761 120.24788761 120.24788761
- 120.24788761]</t>
+          <t>[113.58178608 113.58178608 113.58178608 113.58178608 113.58178608
+ 113.58178608]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14666,10 +14669,10 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
- 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
- 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
- 4.20867607]</t>
+          <t>[4.25931698 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698
+ 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698
+ 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698
+ 4.25931698]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14715,7 +14718,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[4173.51651643]</t>
+          <t>[4274.55647183]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14738,7 +14741,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>[41950052.22608165]</t>
+          <t>[42965654.15055941]</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -14757,7 +14760,7 @@
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>[3.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
@@ -14780,7 +14783,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>[55.64688689]</t>
+          <t>[56.99408629]</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -14803,7 +14806,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[246.41769013]</t>
+          <t>[258.49355966]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14826,7 +14829,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[246.41769013]</t>
+          <t>[258.49355966]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14849,8 +14852,8 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[4.27785443e+06 4.27785443e+06 1.01882385e+05 2.00534554e+09
- 2.00534554e+09 0.00000000e+00]</t>
+          <t>[4.38142038e+06 4.38142038e+06 1.05604515e+05 2.05389453e+09
+ 2.05389453e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14922,10 +14925,10 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -15179,8 +15182,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[15320.57367546 15320.57367549 15320.57367551 15320.57367554
- 15320.57367556 15320.57367559]</t>
+          <t>[16604.23663973 16604.23663973 16604.23663972 16604.23663972
+ 16604.23663972 16604.23663972]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15207,8 +15210,8 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>[133448.30124483 133448.30124548 133448.30124614 133448.30124679
- 133448.30124745 133448.30124811]</t>
+          <t>[147986.46158939 147986.46158929 147986.4615892  147986.46158913
+ 147986.46158906 147986.46158899]</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15235,8 +15238,8 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[133448.30124483 133448.30124548 133448.30124614 133448.30124679
- 133448.30124745 133448.30124811]</t>
+          <t>[147986.46158939 147986.46158929 147986.4615892  147986.46158913
+ 147986.46158906 147986.46158899]</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15263,8 +15266,8 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[3.19789842e+12 3.19789842e+12 3.19789842e+12 3.19789842e+12
- 3.19789842e+12 3.19789842e+12]</t>
+          <t>[3.54628473e+12 3.54628473e+12 3.54628473e+12 3.54628473e+12
+ 3.54628473e+12 3.54628473e+12]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15291,8 +15294,8 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>[3.19789842e+12 3.19789842e+12 3.19789842e+12 3.19789842e+12
- 3.19789842e+12 3.19789842e+12]</t>
+          <t>[3.54628473e+12 3.54628473e+12 3.54628473e+12 3.54628473e+12
+ 3.54628473e+12 3.54628473e+12]</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15319,8 +15322,8 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>[2.53593345e+12 2.53593345e+12 2.53593345e+12 2.53593345e+12
- 2.53593345e+12 2.53593345e+12]</t>
+          <t>[2.81220379e+12 2.81220379e+12 2.81220379e+12 2.81220379e+12
+ 2.81220379e+12 2.81220379e+12]</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15347,8 +15350,8 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>[3.67135722e+11 3.67135722e+11 3.67135722e+11 3.67135722e+11
- 3.67135722e+11 3.67135722e+11]</t>
+          <t>[3.97896876e+11 3.97896876e+11 3.97896876e+11 3.97896876e+11
+ 3.97896876e+11 3.97896876e+11]</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15456,12 +15459,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
- [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
- [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
- [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
- [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
- [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]]</t>
+          <t>[[0.         0.         0.5026428  0.24021292 0.24021292 0.        ]
+ [0.         0.         0.5026428  0.24021292 0.24021292 0.        ]
+ [0.         0.         0.5026428  0.24021292 0.24021292 0.        ]
+ [0.         0.         0.5026428  0.24021292 0.24021292 0.        ]
+ [0.         0.         0.5026428  0.24021292 0.24021292 0.        ]
+ [0.         0.         0.5026428  0.24021292 0.24021292 0.        ]]</t>
         </is>
       </c>
       <c r="E581" t="inlineStr"/>
@@ -15484,12 +15487,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[[0.89379631 0.89379631 0.         0.         0.         0.13160756]
- [0.89379631 0.89379631 0.         0.         0.         0.13160756]
- [0.89379631 0.89379631 0.         0.         0.         0.13160756]
- [0.89379631 0.89379631 0.         0.         0.         0.13160756]
- [0.89379631 0.89379631 0.         0.         0.         0.13160756]
- [0.89379631 0.89379631 0.         0.         0.         0.13160756]]</t>
+          <t>[[0.82450794 0.82450794 0.         0.         0.         0.12010646]
+ [0.82450794 0.82450794 0.         0.         0.         0.12010646]
+ [0.82450794 0.82450794 0.         0.         0.         0.12010646]
+ [0.82450794 0.82450794 0.         0.         0.         0.12010646]
+ [0.82450794 0.82450794 0.         0.         0.         0.12010646]
+ [0.82450794 0.82450794 0.         0.         0.         0.12010646]]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15512,7 +15515,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[1001.62910509]</t>
+          <t>[1032.67321586]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15535,7 +15538,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[3398313.75351104]</t>
+          <t>[3656288.29075319]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15558,7 +15561,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[1378851.63079456]</t>
+          <t>[1494381.29757545]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15604,7 +15607,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[3.73490975e+09 3.73490975e+09 2.40206942e+07 0.00000000e+00
+          <t>[4.04814828e+09 4.04814828e+09 2.66375631e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -15628,9 +15631,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15653,8 +15656,8 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
- 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
+          <t>[0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025
+ 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15702,7 +15705,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>[1478851.63079456]</t>
+          <t>[1594381.29757545]</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -15710,7 +15713,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>fixedse.monopile_cost</t>
+          <t>fixedse.mono.grav_foundation_mass</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -15720,12 +15723,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>[3898313.75351104]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -15733,7 +15736,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>fixedse.monopile_z_cg</t>
+          <t>fixedse.monopile_cost</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -15743,12 +15746,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[48.0429016]</t>
+          <t>[4156288.29075319]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
@@ -15756,7 +15759,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>fixedse.monopile_I_base</t>
+          <t>fixedse.monopile_z_cg</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -15766,13 +15769,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[4.54579540e+09 4.54579540e+09 2.57919896e+07 0.00000000e+00
- 0.00000000e+00 0.00000000e+00]</t>
+          <t>[47.82241143]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15780,7 +15782,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>fixedse.structural_mass</t>
+          <t>fixedse.monopile_I_base</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -15790,12 +15792,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[2328653.08278141]</t>
+          <t>[4.85905537e+09 4.85905537e+09 2.84517412e+07 0.00000000e+00
+ 0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -15803,7 +15806,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>fixedse.structural_cost</t>
+          <t>fixedse.structural_mass</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -15813,12 +15816,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[6260361.87082767]</t>
+          <t>[2273035.1929263]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr"/>
@@ -15826,7 +15829,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>fixedse.z_start</t>
+          <t>fixedse.structural_cost</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -15836,12 +15839,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[-75.]</t>
+          <t>[6165895.57868911]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -15849,7 +15852,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>fixedse.constr_diam_consistency</t>
+          <t>fixedse.z_start</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -15857,10 +15860,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[0.95041765]</t>
+          <t>[-75.]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -15868,7 +15875,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>fixedse.soil.z_k</t>
+          <t>fixedse.constr_diam_consistency</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -15876,14 +15883,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15891,7 +15894,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>fixedse.soil.k</t>
+          <t>fixedse.soil.z_k</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -15906,26 +15909,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[[3.09888740e+10 1.85474786e+13 3.09888740e+10 1.85474786e+13
-  1.90480977e+10 5.56625713e+10]
- [2.78764530e+10 1.31069127e+13 2.78764530e+10 1.31069127e+13
-  1.73680977e+10 5.56625713e+10]
- [2.47640319e+10 8.86101349e+12 2.47640319e+10 8.86101349e+12
-  1.56880977e+10 5.56625713e+10]
- [2.16516109e+10 5.66044758e+12 2.16516109e+10 5.66044758e+12
-  1.40080977e+10 5.56625713e+10]
- [1.85391898e+10 3.35588167e+12 1.85391898e+10 3.35588167e+12
-  1.23280977e+10 5.56625713e+10]
- [1.54267688e+10 1.79798243e+12 1.54267688e+10 1.79798243e+12
-  1.06480977e+10 5.56625713e+10]
- [1.23143477e+10 8.37416528e+11 1.23143477e+10 8.37416528e+11
-  8.96809766e+09 5.56625713e+10]
- [9.20192665e+09 3.24850622e+11 9.20192665e+09 3.24850622e+11
-  7.28809766e+09 5.56625713e+10]
- [6.08950560e+09 1.10951382e+11 6.08950560e+09 1.10951382e+11
-  5.60809766e+09 5.56625713e+10]
- [2.97708454e+09 4.63854761e+10 2.97708454e+09 4.63854761e+10
-  3.92809766e+09 5.56625713e+10]]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15933,7 +15917,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>towerse.constr_d_to_t</t>
+          <t>fixedse.soil.k</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -15941,10 +15925,33 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[195.7560123 320.        280.        240.       ]</t>
+          <t>[[3.10246958e+10 1.85578184e+13 3.10246958e+10 1.85578184e+13
+  1.90953625e+10 5.76961253e+10]
+ [2.79122747e+10 1.31162919e+13 2.79122747e+10 1.31162919e+13
+  1.74153625e+10 5.76961253e+10]
+ [2.47998537e+10 8.86943212e+12 2.47998537e+10 8.86943212e+12
+  1.57353625e+10 5.76961253e+10]
+ [2.16874326e+10 5.66790564e+12 2.16874326e+10 5.66790564e+12
+  1.40553625e+10 5.76961253e+10]
+ [1.85750116e+10 3.36237916e+12 1.85750116e+10 3.36237916e+12
+  1.23753625e+10 5.76961253e+10]
+ [1.54625905e+10 1.80351935e+12 1.54625905e+10 1.80351935e+12
+  1.06953625e+10 5.76961253e+10]
+ [1.23501695e+10 8.41992874e+11 1.23501695e+10 8.41992874e+11
+  9.01536251e+09 5.76961253e+10]
+ [9.23774843e+09 3.28466395e+11 9.23774843e+09 3.28466395e+11
+  7.33536251e+09 5.76961253e+10]
+ [6.12532738e+09 1.13606583e+11 6.12532738e+09 1.13606583e+11
+  5.65536251e+09 5.76961253e+10]
+ [3.01290633e+09 4.80801044e+10 3.01290633e+09 4.80801044e+10
+  3.97536251e+09 5.76961253e+10]]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15952,7 +15959,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>towerse.constr_taper</t>
+          <t>towerse.constr_d_to_t</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -15963,7 +15970,7 @@
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[302.01082329 425.93169781 362.96584891 300.        ]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15971,7 +15978,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>towerse.slope</t>
+          <t>towerse.constr_taper</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -15982,7 +15989,7 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[1.         1.         0.70433828 1.        ]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15990,7 +15997,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>towerse.thickness_slope</t>
+          <t>towerse.slope</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -16001,7 +16008,7 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[0.61173754 1.         1.        ]</t>
+          <t>[1.         1.         0.70433828 1.        ]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -16009,7 +16016,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>towerse.member.ca_usr_grid_full</t>
+          <t>towerse.thickness_slope</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16020,7 +16027,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.70905928 1.         1.        ]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -16028,7 +16035,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>towerse.member.cd_usr_grid_full</t>
+          <t>towerse.member.ca_usr_grid_full</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16047,7 +16054,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>towerse.member.nu_full</t>
+          <t>towerse.member.cd_usr_grid_full</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16058,41 +16065,35 @@
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>towerse.member.nu_full</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
           <t>[0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405
  0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405]</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>towerse.member.nodes_r</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>[4.         4.         4.         4.         4.         4.
- 4.         3.66666667 3.33333333 3.         3.         3.
- 3.        ]</t>
-        </is>
-      </c>
       <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>towerse.member.center_of_buoyancy</t>
+          <t>towerse.member.nodes_r</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16107,7 +16108,9 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0. 0. 0.]</t>
+          <t>[4.25931698 4.25931698 4.25931698 4.25931698 4.25931698 4.25931698
+ 4.25931698 3.83954465 3.41977233 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16115,7 +16118,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>towerse.member.displacement</t>
+          <t>towerse.member.center_of_buoyancy</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16125,12 +16128,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>m**3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16138,7 +16141,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>towerse.member.buoyancy_force</t>
+          <t>towerse.member.displacement</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16148,7 +16151,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m**3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16161,7 +16164,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>towerse.member.idx_cb</t>
+          <t>towerse.member.buoyancy_force</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16169,7 +16172,11 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16180,7 +16187,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>towerse.member.Awater</t>
+          <t>towerse.member.idx_cb</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16188,11 +16195,7 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16203,7 +16206,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>towerse.member.Iwaterx</t>
+          <t>towerse.member.Awater</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16213,7 +16216,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>m**4</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16226,7 +16229,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>towerse.member.Iwatery</t>
+          <t>towerse.member.Iwaterx</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16249,7 +16252,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>towerse.member.added_mass</t>
+          <t>towerse.member.Iwatery</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16259,12 +16262,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m**4</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16272,7 +16275,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>towerse.member.waterline_centroid</t>
+          <t>towerse.member.added_mass</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -16282,12 +16285,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16295,57 +16298,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>towerse.member.waterline_centroid</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[0. 0.]</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
           <t>towerse.member.z_dim</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>[ 15.          27.78666667  40.57333333  53.36        71.62666667
   89.89333333 108.16       119.12       130.08       141.04
  148.34666667 155.65333333 162.96      ]</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>towerse.member.d_eff</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
-        </is>
-      </c>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>towerse.tower_section_height</t>
+          <t>towerse.member.d_eff</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -16360,7 +16361,9 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[38.36 54.8  32.88 21.92]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396 7.6790893  6.83954465 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16368,7 +16371,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>towerse.member.sigma_ult</t>
+          <t>towerse.tower_section_height</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -16378,12 +16381,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
+          <t>[38.36 54.8  32.88 21.92]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16391,7 +16394,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_exp</t>
+          <t>towerse.member.sigma_ult</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -16399,10 +16402,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3.]</t>
+          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16410,7 +16417,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_A</t>
+          <t>towerse.member.wohler_exp</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -16421,7 +16428,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
+          <t>[3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16429,7 +16436,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_density</t>
+          <t>towerse.member.wohler_A</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -16437,14 +16444,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16452,7 +16455,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_unit_cost</t>
+          <t>towerse.member.ballast_density</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -16462,7 +16465,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16475,7 +16478,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>towerse.z_param</t>
+          <t>towerse.member.ballast_unit_cost</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -16485,12 +16488,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16498,7 +16501,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>towerse.member.sec_loc</t>
+          <t>towerse.z_param</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -16506,22 +16509,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.         0.39534884 0.76744186 1.        ]</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>normalized sectional location</t>
-        </is>
-      </c>
+          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>towerse.member.str_tw</t>
+          <t>towerse.member.sec_loc</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -16529,26 +16532,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>structural twist of section</t>
+          <t>normalized sectional location</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>towerse.member.tw_iner</t>
+          <t>towerse.member.str_tw</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -16568,14 +16567,14 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>inertial twist of section</t>
+          <t>structural twist of section</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>towerse.member.mass_den</t>
+          <t>towerse.member.tw_iner</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16585,24 +16584,24 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>kg/m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>[8528.42592405 5227.55912469 4572.06581752 3916.57251035]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>sectional mass per unit length</t>
+          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_iner</t>
+          <t>towerse.member.mass_den</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16612,24 +16611,24 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>kg*m</t>
+          <t>kg/m</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[67533.90251654 41559.91184742 27804.58963808 17478.31679189]</t>
+          <t>[6279.21371138 4456.63814278 3796.25906214 3135.87998152]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_iner</t>
+          <t>towerse.member.foreaft_iner</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16644,19 +16643,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[67533.90251654 41559.91184742 27804.58963808 17478.31679189]</t>
+          <t>[56582.11713626 40236.30017827 24869.34546183 14017.69710537]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_stff</t>
+          <t>towerse.member.sideside_iner</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16666,24 +16665,24 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N*m**2</t>
+          <t>kg*m</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[1.61835376e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[56582.11713626 40236.30017827 24869.34546183 14017.69710537]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_stff</t>
+          <t>towerse.member.foreaft_stff</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16698,19 +16697,19 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[1.61835376e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[1.35590983e+12 9.64205612e+11 5.95958434e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>towerse.member.tor_stff</t>
+          <t>towerse.member.sideside_stff</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16725,19 +16724,19 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[1.28335453e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
+          <t>[1.35590983e+12 9.64205612e+11 5.95958434e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sectional torsional stiffness</t>
+          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>towerse.member.axial_stff</t>
+          <t>towerse.member.tor_stff</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16747,24 +16746,24 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N*m**2</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[2.04371577e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
+          <t>[1.07523649e+12 7.64615050e+11 4.72595038e+11 2.66379914e+11]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>sectional axial stiffness</t>
+          <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>towerse.member.cg_offst</t>
+          <t>towerse.member.axial_stff</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16774,24 +16773,24 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[1.50472411e+11 1.06796984e+11 9.09719401e+10 7.51468963e+10]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>offset from the sectional center of mass</t>
+          <t>sectional axial stiffness</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>towerse.member.sc_offst</t>
+          <t>towerse.member.cg_offst</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16811,14 +16810,14 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>offset from the sectional shear center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>towerse.member.tc_offst</t>
+          <t>towerse.member.sc_offst</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16838,14 +16837,14 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>towerse.member.axial_load2stress</t>
+          <t>towerse.member.tc_offst</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16855,23 +16854,24 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.97860966 0.4943295  0.4943295  0.        ]
- [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
- [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
- [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>towerse.member.shear_load2stress</t>
+          <t>towerse.member.axial_load2stress</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16886,10 +16886,10 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[1.60801698 1.60801698 0.         0.         0.         0.24716475]
- [2.62573607 2.62573607 0.         0.         0.         0.40163704]
- [3.00158224 3.00158224 0.         0.         0.         0.52529097]
- [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
+          <t>[[0.         0.         1.32914731 0.62825962 0.62825962 0.        ]
+ [0.         0.         1.87271206 0.88348728 0.88348728 0.        ]
+ [0.         0.         2.1984801  1.21809116 1.21809116 0.        ]
+ [0.         0.         2.6614539  1.78617071 1.78617071 0.        ]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>towerse.member.labor_hours</t>
+          <t>towerse.member.shear_load2stress</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16907,12 +16907,15 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[528.03339228]</t>
+          <t>[[2.18578982 2.18578982 0.         0.         0.         0.31412981]
+ [3.08101499 3.08101499 0.         0.         0.         0.44174364]
+ [3.61631506 3.61631506 0.         0.         0.         0.60904558]
+ [4.37673138 4.37673138 0.         0.         0.         0.89308536]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16920,7 +16923,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.member.labor_hours</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16930,12 +16933,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[2362048.11731663]</t>
+          <t>[476.93093425]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16943,7 +16946,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>towerse.member.section_D</t>
+          <t>towerse.tower_cost</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16953,13 +16956,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
+          <t>[2009607.28793592]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -16967,7 +16969,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>towerse.member.section_t</t>
+          <t>towerse.member.section_D</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16982,8 +16984,8 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.0437279 0.0437279 0.0437279 0.02675   0.02675   0.02675   0.02675
- 0.02675   0.02675   0.02675   0.02675   0.02675  ]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.09886163 7.25931698 6.41977233 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -16991,54 +16993,55 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
+          <t>towerse.member.section_t</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[0.03018083 0.03018083 0.03018083 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
           <t>towerse.member.section_sigma_y</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>[3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08
  3.45e+08 3.45e+08 3.45e+08 3.45e+08]</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>towerse.transition_piece_height</t>
+          <t>towerse.height_constraint</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17053,7 +17056,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>[15.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -17061,7 +17064,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>towerse.z_start</t>
+          <t>towerse.transition_piece_height</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17084,7 +17087,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>airfoils.ac</t>
+          <t>towerse.z_start</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17092,22 +17095,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>1D array of the aerodynamic centers of each airfoil.</t>
-        </is>
-      </c>
+          <t>[15.]</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>airfoils.r_thick</t>
+          <t>airfoils.ac</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17118,32 +17121,55 @@
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1D array of the relative thicknesses of each airfoil.</t>
+          <t>1D array of the aerodynamic centers of each airfoil.</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
+          <t>airfoils.r_thick</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1D array of the relative thicknesses of each airfoil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
           <t>airfoils.aoa</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>[-3.14159265 -3.08923278 -3.0368729  -2.98451302 -2.93215314 -2.87979327
  -2.82743339 -2.77507351 -2.72271363 -2.67035376 -2.61799388 -2.565634
@@ -17181,39 +17207,16 @@
   3.08923278  3.14159265]</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>1D array of the angles of attack used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>airfoils.Re</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>[1000000.]</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>airfoils.cl</t>
+          <t>airfoils.Re</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17223,6 +17226,29 @@
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
+        <is>
+          <t>[1000000.]</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>airfoils.cl</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>[[[[ 1.27742998e-02]]
   [[ 1.42693272e-01]]
@@ -17269,25 +17295,25 @@
   [[ 1.53642952e-08]]]]</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>4D array with the lift coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>airfoils.cd</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>[[[[0.06162547]]
   [[0.06296798]]
@@ -17334,25 +17360,25 @@
   [[0.0198    ]]]]</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>4D array with the drag coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>airfoils.cm</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>[[[[ 3.70854259e-04]]
   [[ 5.78906867e-02]]
@@ -17399,25 +17425,25 @@
   [[ 7.70271560e-09]]]]</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>4D array with the moment coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>airfoils.coord_xy</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>[[[ 1.00000000e+00 -3.47000010e-03]
   [ 9.82059782e-01  4.47998271e-04]
@@ -17464,43 +17490,16 @@
   [ 1.00000000e+00  1.56966672e-03]]]</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>3D array of the x and y airfoil coordinates of the n_af airfoils.</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>airfoils.name</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>configuration.rated_power</t>
+          <t>airfoils.name</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -17510,24 +17509,24 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Unavailable</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[15000000.]</t>
+          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Electrical rated power of the generator.</t>
+          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>configuration.lifetime</t>
+          <t>configuration.rated_power</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -17537,24 +17536,24 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[15000000.]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Turbine design lifetime.</t>
+          <t>Electrical rated power of the generator.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>configuration.rotor_diameter_user</t>
+          <t>configuration.lifetime</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -17564,24 +17563,24 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[250.]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
+          <t>Turbine design lifetime.</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>configuration.hub_height_user</t>
+          <t>configuration.rotor_diameter_user</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -17596,19 +17595,19 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[162.96]</t>
+          <t>[250.]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
+          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>configuration.ws_class</t>
+          <t>configuration.hub_height_user</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17618,24 +17617,24 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>[162.96]</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
+          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>configuration.turb_class</t>
+          <t>configuration.ws_class</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17650,19 +17649,19 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
+          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>configuration.gearbox_type</t>
+          <t>configuration.turb_class</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17677,19 +17676,19 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
+          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>configuration.rotor_orientation</t>
+          <t>configuration.gearbox_type</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17704,19 +17703,19 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>upwind</t>
+          <t>direct_drive</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Rotor orientation, either upwind or downwind.</t>
+          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>configuration.upwind</t>
+          <t>configuration.rotor_orientation</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17729,19 +17728,21 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D667" t="b">
-        <v>1</v>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>upwind</t>
+        </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Convenient boolean for upwind (True) or downwind (False).</t>
+          <t>Rotor orientation, either upwind or downwind.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>configuration.n_blades</t>
+          <t>configuration.upwind</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17754,19 +17755,19 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D668" t="n">
-        <v>3</v>
+      <c r="D668" t="b">
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Number of blades of the rotor.</t>
+          <t>Convenient boolean for upwind (True) or downwind (False).</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>control.V_in</t>
+          <t>configuration.n_blades</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17776,24 +17777,22 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>m/s</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
+          <t>Number of blades of the rotor.</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>control.V_out</t>
+          <t>control.V_in</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17808,19 +17807,19 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
+          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>control.minOmega</t>
+          <t>control.V_out</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17830,24 +17829,24 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[0.52359878]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Minimum allowed rotor speed.</t>
+          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>control.maxOmega</t>
+          <t>control.minOmega</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17862,19 +17861,19 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>[0.79168135]</t>
+          <t>[0.52359878]</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Maximum allowed rotor speed.</t>
+          <t>Minimum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>control.max_TS</t>
+          <t>control.maxOmega</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17884,24 +17883,24 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[0.79168135]</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Maximum allowed blade tip speed.</t>
+          <t>Maximum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>control.max_pitch_rate</t>
+          <t>control.max_TS</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17911,24 +17910,24 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[0.03490659]</t>
+          <t>[95.]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Maximum allowed blade pitch rate</t>
+          <t>Maximum allowed blade tip speed.</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>control.max_torque_rate</t>
+          <t>control.max_pitch_rate</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17938,24 +17937,24 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N*m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[1500000.]</t>
+          <t>[0.03490659]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Maximum allowed generator torque rate</t>
+          <t>Maximum allowed blade pitch rate</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>control.rated_TSR</t>
+          <t>control.max_torque_rate</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17963,22 +17962,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>N*m/s</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[1500000.]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Constant tip speed ratio in region II.</t>
+          <t>Maximum allowed generator torque rate</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>control.rated_pitch</t>
+          <t>control.rated_TSR</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17986,26 +17989,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[9.]</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Constant pitch angle in region II.</t>
+          <t>Constant tip speed ratio in region II.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>costs.offset_tcc_per_kW</t>
+          <t>control.rated_pitch</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18015,7 +18014,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -18025,14 +18024,14 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Offset to turbine capital cost</t>
+          <t>Constant pitch angle in region II.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>costs.bos_per_kW</t>
+          <t>costs.offset_tcc_per_kW</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18047,19 +18046,19 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>[4053.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Balance of station/plant capital cost</t>
+          <t>Offset to turbine capital cost</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>costs.opex_per_kW</t>
+          <t>costs.bos_per_kW</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18069,24 +18068,24 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[137.]</t>
+          <t>[4053.]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Average annual operational expenditures of the turbine</t>
+          <t>Balance of station/plant capital cost</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>costs.wake_loss_factor</t>
+          <t>costs.opex_per_kW</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18094,22 +18093,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>[0.15]</t>
+          <t>[137.]</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>The losses in AEP due to waked conditions</t>
+          <t>Average annual operational expenditures of the turbine</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>costs.fixed_charge_rate</t>
+          <t>costs.wake_loss_factor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18120,19 +18123,19 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[0.056]</t>
+          <t>[0.15]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Fixed charge rate for coe calculation</t>
+          <t>The losses in AEP due to waked conditions</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>costs.labor_rate</t>
+          <t>costs.fixed_charge_rate</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18140,22 +18143,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>USD/h</t>
-        </is>
-      </c>
+      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>[58.8]</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
+          <t>[0.056]</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Fixed charge rate for coe calculation</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>costs.painting_rate</t>
+          <t>costs.labor_rate</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18165,12 +18168,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>USD/m**2</t>
+          <t>USD/h</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[58.8]</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -18178,7 +18181,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>costs.blade_mass_cost_coeff</t>
+          <t>costs.painting_rate</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18188,12 +18191,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/m**2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>[14.6]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -18201,7 +18204,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>costs.hub_mass_cost_coeff</t>
+          <t>costs.blade_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18216,7 +18219,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>[3.9]</t>
+          <t>[14.6]</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
@@ -18224,7 +18227,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>costs.pitch_system_mass_cost_coeff</t>
+          <t>costs.hub_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18239,7 +18242,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>[22.1]</t>
+          <t>[3.9]</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -18247,7 +18250,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>costs.spinner_mass_cost_coeff</t>
+          <t>costs.pitch_system_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18262,7 +18265,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>[11.1]</t>
+          <t>[22.1]</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -18270,7 +18273,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>costs.lss_mass_cost_coeff</t>
+          <t>costs.spinner_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18285,7 +18288,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[11.9]</t>
+          <t>[11.1]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18293,7 +18296,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>costs.bearing_mass_cost_coeff</t>
+          <t>costs.lss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18308,7 +18311,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[4.5]</t>
+          <t>[11.9]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18316,7 +18319,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>costs.gearbox_torque_cost</t>
+          <t>costs.bearing_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18326,12 +18329,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>USD/kN/m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[4.5]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18339,7 +18342,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>costs.hss_mass_cost_coeff</t>
+          <t>costs.gearbox_torque_cost</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18349,12 +18352,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kN/m</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[6.8]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -18362,7 +18365,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>costs.generator_mass_cost_coeff</t>
+          <t>costs.hss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -18377,7 +18380,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>[12.4]</t>
+          <t>[6.8]</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -18385,7 +18388,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>costs.bedplate_mass_cost_coeff</t>
+          <t>costs.generator_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -18400,7 +18403,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[12.4]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -18408,7 +18411,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>costs.yaw_mass_cost_coeff</t>
+          <t>costs.bedplate_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -18423,7 +18426,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[8.3]</t>
+          <t>[2.9]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18431,7 +18434,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>costs.converter_mass_cost_coeff</t>
+          <t>costs.yaw_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -18446,7 +18449,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>[18.8]</t>
+          <t>[8.3]</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -18454,7 +18457,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>costs.transformer_mass_cost_coeff</t>
+          <t>costs.converter_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -18477,7 +18480,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>costs.hvac_mass_cost_coeff</t>
+          <t>costs.transformer_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -18492,7 +18495,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[124.]</t>
+          <t>[18.8]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18500,7 +18503,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>costs.cover_mass_cost_coeff</t>
+          <t>costs.hvac_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -18515,7 +18518,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>[5.7]</t>
+          <t>[124.]</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -18523,7 +18526,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>costs.elec_connec_machine_rating_cost_coeff</t>
+          <t>costs.cover_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -18533,12 +18536,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[41.85]</t>
+          <t>[5.7]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -18546,7 +18549,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>costs.platforms_mass_cost_coeff</t>
+          <t>costs.elec_connec_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -18556,12 +18559,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[17.1]</t>
+          <t>[41.85]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18569,7 +18572,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>costs.tower_mass_cost_coeff</t>
+          <t>costs.platforms_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -18584,7 +18587,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[2.79954228]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -18592,7 +18595,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>costs.controls_machine_rating_cost_coeff</t>
+          <t>costs.tower_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18602,12 +18605,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[21.15]</t>
+          <t>[2.77876722]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18615,7 +18618,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>costs.crane_cost</t>
+          <t>costs.controls_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18625,12 +18628,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[12000.]</t>
+          <t>[21.15]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18638,7 +18641,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>costs.electricity_price</t>
+          <t>costs.crane_cost</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18648,12 +18651,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>USD/kW/h</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[0.04]</t>
+          <t>[12000.]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18661,7 +18664,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>costs.reserve_margin_price</t>
+          <t>costs.electricity_price</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18671,12 +18674,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW/h</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[120.]</t>
+          <t>[0.04]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18684,7 +18687,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>costs.capacity_credit</t>
+          <t>costs.reserve_margin_price</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18692,10 +18695,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18703,7 +18710,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>costs.benchmark_price</t>
+          <t>costs.capacity_credit</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18711,14 +18718,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>USD/kW/h</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[0.071]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18726,7 +18729,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>costs.turbine_number</t>
+          <t>costs.benchmark_price</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18736,22 +18739,20 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>40</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>Number of turbines at plant</t>
-        </is>
-      </c>
+          <t>USD/kW/h</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>[0.071]</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>env.rho_air</t>
+          <t>costs.turbine_number</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18761,24 +18762,22 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>[1.225]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>40</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Density of air</t>
+          <t>Number of turbines at plant</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>env.mu_air</t>
+          <t>env.rho_air</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18788,24 +18787,24 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[1.81e-05]</t>
+          <t>[1.225]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of air</t>
+          <t>Density of air</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>env.shear_exp</t>
+          <t>env.mu_air</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18813,22 +18812,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>kg/m/s</t>
+        </is>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[0.12]</t>
+          <t>[1.81e-05]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Shear exponent of the wind.</t>
+          <t>Dynamic viscosity of air</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>env.speed_sound_air</t>
+          <t>env.shear_exp</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18836,26 +18839,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[340.]</t>
+          <t>[0.12]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Speed of sound in air.</t>
+          <t>Shear exponent of the wind.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>env.weibull_k</t>
+          <t>env.speed_sound_air</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18863,22 +18862,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[2.]</t>
+          <t>[340.]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Shape parameter of the Weibull probability density function of the wind.</t>
+          <t>Speed of sound in air.</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>env.rho_water</t>
+          <t>env.weibull_k</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18886,26 +18889,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[1025.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Density of ocean water</t>
+          <t>Shape parameter of the Weibull probability density function of the wind.</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>env.mu_water</t>
+          <t>env.rho_water</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18915,24 +18914,24 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.0013351]</t>
+          <t>[1025.]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of ocean water</t>
+          <t>Density of ocean water</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>env.water_depth</t>
+          <t>env.mu_water</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18942,24 +18941,24 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg/m/s</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[0.0013351]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
+          <t>Dynamic viscosity of ocean water</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>env.Hsig_wave</t>
+          <t>env.water_depth</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18974,19 +18973,19 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[4.52]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Significant wave height</t>
+          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>env.Tsig_wave</t>
+          <t>env.Hsig_wave</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18996,24 +18995,24 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[9.45]</t>
+          <t>[4.52]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Significant wave period</t>
+          <t>Significant wave height</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>env.G_soil</t>
+          <t>env.Tsig_wave</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19023,24 +19022,24 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/m**2</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>[1.4e+08]</t>
+          <t>[9.45]</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Shear stress of soil</t>
+          <t>Significant wave period</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>env.nu_soil</t>
+          <t>env.G_soil</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19048,35 +19047,62 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>N/m**2</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[1.4e+08]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Poisson ratio of soil</t>
+          <t>Shear stress of soil</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>env.nu_soil</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Poisson ratio of soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>high_level_tower_props.tower_ref_axis</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>[[  0.     0.    15.  ]
  [  0.     0.    53.36]
@@ -19085,132 +19111,132 @@
  [  0.     0.   162.96]]</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>high_level_tower_props.hub_height</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>[162.96]</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
+          <t>high_level_tower_props.hub_height</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>[162.96]</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
           <t>materials.ply_t</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.005      0.00515873
  0.001      0.001      0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>1D array of the ply thicknesses of the materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>materials.fvf</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.57       0.10769231
  0.57       0.57       0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber volume fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>materials.fwf</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.74506827 0.15889029
  0.74506827 0.74506827 0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber weight- fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>materials.E</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>[[3.440e+09 3.440e+09 3.440e+09]
  [2.000e+11 2.000e+11 2.000e+11]
@@ -19225,29 +19251,29 @@
  [4.560e+06 4.560e+06 4.560e+06]]</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>2D array of the Youngs moduli of the materials. Each row represents a material, the three columns represent E11, E22 and E33.</t>
         </is>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>materials.G</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>[[1.32300000e+09 1.32300000e+09 1.32300000e+09]
  [7.93000000e+10 7.93000000e+10 7.93000000e+10]
@@ -19262,25 +19288,25 @@
  [1.52000000e+06 1.52000000e+06 1.52000000e+06]]</t>
         </is>
       </c>
-      <c r="E728" t="inlineStr">
+      <c r="E729" t="inlineStr">
         <is>
           <t>2D array of the shear moduli of the materials. Each row represents a material, the three columns represent G12, G13 and G23.</t>
         </is>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>materials.nu</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
         <is>
           <t>[[0.3   0.3   0.3  ]
  [0.3   0.3   0.3  ]
@@ -19295,29 +19321,29 @@
  [0.49  0.49  0.49 ]]</t>
         </is>
       </c>
-      <c r="E729" t="inlineStr">
+      <c r="E730" t="inlineStr">
         <is>
           <t>2D array of the Poisson ratio of the materials. Each row represents a material, the three columns represent nu12, nu13 and nu23.</t>
         </is>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>materials.Xt</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>[[7.400e+01 7.400e+01 7.400e+01]
  [4.500e+08 4.500e+08 4.500e+08]
@@ -19332,29 +19358,29 @@
  [6.900e+05 6.900e+05 6.900e+05]]</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Tensile Strength (UTS) of the materials. Each row represents a material, the three columns represent Xt12, Xt13 and Xt23.</t>
         </is>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>materials.Xc</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>[[8.7000e+01 8.7000e+01 8.7000e+01]
  [4.5000e+08 4.5000e+08 4.5000e+08]
@@ -19369,29 +19395,29 @@
  [4.0000e+05 4.0000e+05 4.0000e+05]]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Compressive Strength (UCS) of the materials. Each row represents a material, the three columns represent Xc12, Xc13 and Xc23.</t>
         </is>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>materials.S</t>
         </is>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
+      <c r="D733" t="inlineStr">
         <is>
           <t>[[2.126e+07 2.126e+07 2.126e+07]
  [0.000e+00 0.000e+00 0.000e+00]
@@ -19406,67 +19432,44 @@
  [3.100e+05 3.100e+05 3.100e+05]]</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E733" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Shear Strength (USS) of the materials. Each row represents a material, the three columns represent S12, S13 and S23.</t>
         </is>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>materials.sigma_y</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
         <is>
           <t>[0.00e+00 3.45e+08 4.85e+08 2.65e+08 0.00e+00 0.00e+00 0.00e+00 0.00e+00
  0.00e+00 0.00e+00 0.00e+00]</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E734" t="inlineStr">
         <is>
           <t>Yield stress of the material (in the principle direction for composites).</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>materials.wohler_exp</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>materials.wohler_intercept</t>
+          <t>materials.wohler_exp</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -19476,49 +19479,45 @@
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
+        <is>
+          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>materials.wohler_intercept</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
         <is>
           <t>[8.70000000e+01 3.55346484e+10 3.55346484e+10 3.55346484e+10
  6.09200000e+08 1.54600000e+09 1.13200000e+08 4.48900000e+08
  2.08300000e+06 0.00000000e+00 6.90000000e+05]</t>
         </is>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>Stress-intercept (A) of S-N Wohler fatigue curve in the form of S = A*N^-(1/m), taken as ultimate stress unless otherwise specified.</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>materials.unit_cost</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>materials.waste</t>
+          <t>materials.unit_cost</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -19526,128 +19525,128 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>materials.waste</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>materials.roll_mass</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>[  0.       0.       0.       0.       0.       0.     181.4368 181.4368
    0.       0.       0.    ]</t>
         </is>
       </c>
-      <c r="E738" t="inlineStr">
+      <c r="E739" t="inlineStr">
         <is>
           <t>1D array of the roll mass of the composite fabrics. Non-composite materials are kept at 0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>materials.orth</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
+          <t>materials.orth</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
           <t>monopile.s</t>
         </is>
       </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr">
         <is>
           <t>[0.         0.5        0.61111111 0.72222222 0.83333333 0.94444444
  1.        ]</t>
         </is>
       </c>
-      <c r="E740" t="inlineStr">
+      <c r="E741" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>monopile.height</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D741" t="inlineStr">
-        <is>
-          <t>[90.]</t>
-        </is>
-      </c>
-      <c r="E741" t="inlineStr">
-        <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>monopile.length</t>
+          <t>monopile.height</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -19667,14 +19666,14 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>monopile.foundation_height</t>
+          <t>monopile.length</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19689,19 +19688,19 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[-75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Foundation height in respect to the ground level.</t>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>monopile.diameter</t>
+          <t>monopile.foundation_height</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19716,20 +19715,19 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
- 8.41735213]</t>
+          <t>[-75.]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
+          <t>Foundation height in respect to the ground level.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>monopile.layer_thickness</t>
+          <t>monopile.diameter</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19744,19 +19742,20 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[8.51863396 8.51863396 8.51863396 8.51863396 8.51863396 8.51863396
+ 8.51863396]</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>monopile.outfitting_factor</t>
+          <t>monopile.layer_thickness</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19764,22 +19763,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_mass</t>
+          <t>monopile.outfitting_factor</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19787,26 +19790,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[100000.]</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>point mass of transition piece</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_cost</t>
+          <t>monopile.transition_piece_mass</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19816,24 +19815,24 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[500000.]</t>
+          <t>[100000.]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>cost of transition piece</t>
+          <t>point mass of transition piece</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>monopile.gravity_foundation_mass</t>
+          <t>monopile.transition_piece_cost</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19843,24 +19842,24 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[500000.]</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>extra mass of gravity foundation</t>
+          <t>cost of transition piece</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>monopile.layer_name</t>
+          <t>monopile.gravity_foundation_mass</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19870,24 +19869,24 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>['monopile_wall']</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>extra mass of gravity foundation</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>monopile.layer_mat</t>
+          <t>monopile.layer_name</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19902,32 +19901,59 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['monopile_wall']</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
+          <t>monopile.layer_mat</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
           <t>tower.ref_axis</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>[[  0.   0.  15.]
  [  0.   0.  50.]
@@ -19936,43 +19962,16 @@
  [  0.   0. 150.]]</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>tower.diameter</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>[8. 8. 8. 6. 6.]</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>tower.cd</t>
+          <t>tower.diameter</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19980,22 +19979,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[0.5 0.5 0.5 0.5 0.5]</t>
+          <t>[8.51863396 8.51863396 8.51863396 6.         6.        ]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>1D array of the drag coefficients defined along the tower height.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>tower.layer_thickness</t>
+          <t>tower.cd</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -20003,26 +20006,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[[0.0567344 0.025     0.025     0.025     0.025    ]]</t>
+          <t>[0.5 0.5 0.5 0.5 0.5]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the drag coefficients defined along the tower height.</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>tower.outfitting_factor</t>
+          <t>tower.layer_thickness</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20030,22 +20029,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.03641277 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>tower.layer_name</t>
+          <t>tower.outfitting_factor</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20053,26 +20056,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>['tower_wall']</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>tower.layer_mat</t>
+          <t>tower.layer_name</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20087,19 +20086,19 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['tower_wall']</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>tower_grid.s</t>
+          <t>tower.layer_mat</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -20107,22 +20106,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
+          <t>['steel']</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>tower_grid.height</t>
+          <t>tower_grid.s</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -20130,26 +20133,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[147.96]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>tower_grid.length</t>
+          <t>tower_grid.height</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -20169,32 +20168,59 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>tower_grid.length</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>[147.96]</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
           <t>tower_grid.foundation_height</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
+      <c r="D763" t="inlineStr">
         <is>
           <t>[15.]</t>
         </is>
       </c>
-      <c r="E762" t="inlineStr">
+      <c r="E763" t="inlineStr">
         <is>
           <t>Foundation height in respect to the ground level.</t>
         </is>
